--- a/grupos/4AEM - Estadisticos 2020.xlsx
+++ b/grupos/4AEM - Estadisticos 2020.xlsx
@@ -3918,6 +3918,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4594,7 +4595,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5290,6 +5292,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/4AEM - Estadisticos 2020.xlsx
+++ b/grupos/4AEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="163">
   <si>
     <t>Materia</t>
   </si>
@@ -233,27 +233,51 @@
     <t>ALVAREZ</t>
   </si>
   <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>BALDEZ</t>
+  </si>
+  <si>
     <t>BONILLA</t>
   </si>
   <si>
     <t>CARRASCO</t>
   </si>
   <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
     <t>DE LA CRUZ</t>
   </si>
   <si>
     <t>ENCARNACION</t>
   </si>
   <si>
+    <t>ELIZALDE</t>
+  </si>
+  <si>
     <t>DE JESUS</t>
   </si>
   <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>RIOS</t>
+  </si>
+  <si>
     <t>ROMERO</t>
   </si>
   <si>
@@ -263,9 +287,15 @@
     <t>RODRIGUEZ</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>SERRANO</t>
   </si>
   <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
     <t>TZANAHUA</t>
   </si>
   <si>
@@ -293,25 +323,52 @@
     <t>MORAN</t>
   </si>
   <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>IXTACUA</t>
+  </si>
+  <si>
     <t>BAUTISTA</t>
   </si>
   <si>
     <t>SANDOVAL</t>
   </si>
   <si>
+    <t>PALAGOT</t>
+  </si>
+  <si>
     <t>BERISTAIN</t>
   </si>
   <si>
     <t>RAMOS</t>
   </si>
   <si>
+    <t>BELTRAN</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>SORIANO</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
+    <t>MELENDEZ</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>YEPEZ</t>
   </si>
   <si>
     <t>CHAVEZ</t>
@@ -326,7 +383,7 @@
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
+    <t>MELLADO</t>
   </si>
   <si>
     <t>DE LA LUZ</t>
@@ -344,45 +401,93 @@
     <t>JOSE MANUEL</t>
   </si>
   <si>
+    <t>CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>ALEX SAUL</t>
+  </si>
+  <si>
     <t>FERNANDO DE JESUS</t>
   </si>
   <si>
     <t>CRISTIAN ANTONIO</t>
   </si>
   <si>
+    <t>IVAN</t>
+  </si>
+  <si>
     <t>LUIS ENRIQUE</t>
   </si>
   <si>
     <t>JESSICA</t>
   </si>
   <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
     <t>EMMANUEL</t>
   </si>
   <si>
     <t>HAZIEL</t>
   </si>
   <si>
+    <t>GIOVANNA</t>
+  </si>
+  <si>
     <t>JESUS</t>
   </si>
   <si>
+    <t>SAUL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>LOGAN ZURIEL</t>
+  </si>
+  <si>
     <t>YAIR ANTONIO</t>
   </si>
   <si>
     <t>ESTEFANY SARAI</t>
   </si>
   <si>
+    <t>HUGO</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO</t>
+  </si>
+  <si>
     <t>ISRAEL</t>
   </si>
   <si>
     <t>NATANAEL</t>
   </si>
   <si>
+    <t>DIANA AMEYALLI</t>
+  </si>
+  <si>
+    <t>ANUAR ANTONIO</t>
+  </si>
+  <si>
     <t>ELIDETH</t>
   </si>
   <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>ARLETH</t>
+  </si>
+  <si>
     <t>YAMIL ELIEL</t>
   </si>
   <si>
+    <t>JAHIR</t>
+  </si>
+  <si>
     <t>JOCELYN BERENICE</t>
   </si>
   <si>
@@ -402,111 +507,6 @@
   </si>
   <si>
     <t>ALAN EDUARDO</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>BALDEZ</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>ELIZALDE</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>IXTACUA</t>
-  </si>
-  <si>
-    <t>PALAGOT</t>
-  </si>
-  <si>
-    <t>BELTRAN</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>MELENDEZ</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>YEPEZ</t>
-  </si>
-  <si>
-    <t>MELLADO</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO</t>
-  </si>
-  <si>
-    <t>ALEX SAUL</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>GIOVANNA</t>
-  </si>
-  <si>
-    <t>SAUL ALEJANDRO</t>
-  </si>
-  <si>
-    <t>LOGAN ZURIEL</t>
-  </si>
-  <si>
-    <t>HUGO</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO</t>
-  </si>
-  <si>
-    <t>DIANA AMEYALLI</t>
-  </si>
-  <si>
-    <t>ANUAR ANTONIO</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>ARLETH</t>
-  </si>
-  <si>
-    <t>JAHIR</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1150,7 @@
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1218,10 +1218,10 @@
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -1422,10 +1422,10 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O10">
         <v>-1</v>
@@ -1830,10 +1830,10 @@
         <v>-1</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O16">
         <v>-1</v>
@@ -1966,10 +1966,10 @@
         <v>-1</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O18">
         <v>-1</v>
@@ -2034,10 +2034,10 @@
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O19">
         <v>-1</v>
@@ -2238,10 +2238,10 @@
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O22">
         <v>-1</v>
@@ -2374,10 +2374,10 @@
         <v>-1</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O24">
         <v>-1</v>
@@ -2714,10 +2714,10 @@
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O29">
         <v>-1</v>
@@ -2782,10 +2782,10 @@
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O30">
         <v>-1</v>
@@ -2918,10 +2918,10 @@
         <v>-1</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O32">
         <v>-1</v>
@@ -2986,10 +2986,10 @@
         <v>-1</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O33">
         <v>-1</v>
@@ -3462,10 +3462,10 @@
         <v>-1</v>
       </c>
       <c r="M40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O40">
         <v>-1</v>
@@ -3912,7 +3912,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F249"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3950,70 +3950,70 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920417</v>
+        <v>19330051920003</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920417</v>
+        <v>19330051920003</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920007</v>
+        <v>19330051920003</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -4024,76 +4024,76 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920014</v>
+        <v>19330051920003</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920014</v>
+        <v>19330051920003</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920016</v>
+        <v>19330051920003</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920016</v>
+        <v>19330051920005</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -4104,36 +4104,36 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920012</v>
+        <v>19330051920005</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920011</v>
+        <v>19330051920005</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -4144,76 +4144,76 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920010</v>
+        <v>19330051920005</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920010</v>
+        <v>19330051920005</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920168</v>
+        <v>19330051920005</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920422</v>
+        <v>19330051920004</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -4224,176 +4224,176 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920026</v>
+        <v>19330051920004</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920026</v>
+        <v>19330051920004</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330061460390</v>
+        <v>19330051920004</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920024</v>
+        <v>19330051920004</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920032</v>
+        <v>19330051920004</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920032</v>
+        <v>19330051920004</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920035</v>
+        <v>19330051920006</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920033</v>
+        <v>19330051920006</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
         <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920033</v>
+        <v>19330051920006</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -4404,96 +4404,96 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920034</v>
+        <v>19330051920006</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920038</v>
+        <v>19330051920006</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920037</v>
+        <v>19330051920417</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920036</v>
+        <v>19330051920417</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920036</v>
+        <v>19330051920417</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -4504,82 +4504,4402 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920039</v>
+        <v>19330051920417</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920039</v>
+        <v>19330051920417</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920039</v>
+        <v>19330051920417</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
+        <v>19330051920417</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>19330051920007</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>19330051920007</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>19330051920007</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>19330051920007</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>19330051920007</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>19330051920007</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>19330051920007</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>19330051920008</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>19330051920008</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>19330051920008</v>
+      </c>
+      <c r="B43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>19330051920008</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>19330051920008</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>19330051920014</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>19330051920014</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>19330051920014</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>19330051920014</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>19330051920014</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>19330051920014</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>19330051920014</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>19330051920016</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>19330051920016</v>
+      </c>
+      <c r="B54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>19330051920016</v>
+      </c>
+      <c r="B55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>19330051920016</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>19330051920016</v>
+      </c>
+      <c r="B57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>19330051920016</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>19330051920016</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>19330051920015</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>19330051920015</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>19330051920015</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>19330051920015</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>19330051920015</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>19330051920012</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>19330051920012</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>19330051920012</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>19330051920012</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>19330051920012</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>19330051920012</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>19330051920012</v>
+      </c>
+      <c r="B71" t="s">
+        <v>80</v>
+      </c>
+      <c r="C71" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>19330051920011</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>19330051920011</v>
+      </c>
+      <c r="B73" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>19330051920011</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>19330051920011</v>
+      </c>
+      <c r="B75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>19330051920011</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>110</v>
+      </c>
+      <c r="D76" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>19330051920011</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>19330051920011</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D78" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>19330051920009</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>19330051920009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>19330051920009</v>
+      </c>
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>19330051920009</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>19330051920009</v>
+      </c>
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>19330051920009</v>
+      </c>
+      <c r="B84" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>137</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>19330051920009</v>
+      </c>
+      <c r="B85" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>19330051920010</v>
+      </c>
+      <c r="B86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" t="s">
+        <v>112</v>
+      </c>
+      <c r="D86" t="s">
+        <v>138</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>19330051920010</v>
+      </c>
+      <c r="B87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>19330051920010</v>
+      </c>
+      <c r="B88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C88" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" t="s">
+        <v>138</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>19330051920010</v>
+      </c>
+      <c r="B89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>19330051920010</v>
+      </c>
+      <c r="B90" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" t="s">
+        <v>138</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>19330051920010</v>
+      </c>
+      <c r="B91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" t="s">
+        <v>138</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>19330051920010</v>
+      </c>
+      <c r="B92" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" t="s">
+        <v>138</v>
+      </c>
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>19330051920017</v>
+      </c>
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" t="s">
+        <v>139</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>19330051920017</v>
+      </c>
+      <c r="B94" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>19330051920017</v>
+      </c>
+      <c r="B95" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" t="s">
+        <v>139</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>19330051920017</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" t="s">
+        <v>139</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>19330051920017</v>
+      </c>
+      <c r="B97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" t="s">
+        <v>139</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>19330051920018</v>
+      </c>
+      <c r="B98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>19330051920018</v>
+      </c>
+      <c r="B99" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" t="s">
+        <v>140</v>
+      </c>
+      <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>19330051920018</v>
+      </c>
+      <c r="B100" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" t="s">
+        <v>114</v>
+      </c>
+      <c r="D100" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>19330051920018</v>
+      </c>
+      <c r="B101" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>19330051920018</v>
+      </c>
+      <c r="B102" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" t="s">
+        <v>114</v>
+      </c>
+      <c r="D102" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>18330051920168</v>
+      </c>
+      <c r="B103" t="s">
+        <v>83</v>
+      </c>
+      <c r="C103" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>18330051920168</v>
+      </c>
+      <c r="B104" t="s">
+        <v>83</v>
+      </c>
+      <c r="C104" t="s">
+        <v>86</v>
+      </c>
+      <c r="D104" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>18330051920168</v>
+      </c>
+      <c r="B105" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" t="s">
+        <v>141</v>
+      </c>
+      <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>18330051920168</v>
+      </c>
+      <c r="B106" t="s">
+        <v>83</v>
+      </c>
+      <c r="C106" t="s">
+        <v>86</v>
+      </c>
+      <c r="D106" t="s">
+        <v>141</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>18330051920168</v>
+      </c>
+      <c r="B107" t="s">
+        <v>83</v>
+      </c>
+      <c r="C107" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>18330051920168</v>
+      </c>
+      <c r="B108" t="s">
+        <v>83</v>
+      </c>
+      <c r="C108" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" t="s">
+        <v>141</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>18330051920168</v>
+      </c>
+      <c r="B109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>19330051920422</v>
+      </c>
+      <c r="B110" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" t="s">
+        <v>81</v>
+      </c>
+      <c r="D110" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>19330051920422</v>
+      </c>
+      <c r="B111" t="s">
+        <v>84</v>
+      </c>
+      <c r="C111" t="s">
+        <v>81</v>
+      </c>
+      <c r="D111" t="s">
+        <v>142</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>19330051920422</v>
+      </c>
+      <c r="B112" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D112" t="s">
+        <v>142</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>19330051920422</v>
+      </c>
+      <c r="B113" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" t="s">
+        <v>142</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>19330051920422</v>
+      </c>
+      <c r="B114" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D114" t="s">
+        <v>142</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>19330051920422</v>
+      </c>
+      <c r="B115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C115" t="s">
+        <v>81</v>
+      </c>
+      <c r="D115" t="s">
+        <v>142</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>19330051920422</v>
+      </c>
+      <c r="B116" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" t="s">
+        <v>81</v>
+      </c>
+      <c r="D116" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>19330051920020</v>
+      </c>
+      <c r="B117" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" t="s">
+        <v>89</v>
+      </c>
+      <c r="D117" t="s">
+        <v>143</v>
+      </c>
+      <c r="E117" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>19330051920020</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>19330051920020</v>
+      </c>
+      <c r="B119" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" t="s">
+        <v>89</v>
+      </c>
+      <c r="D119" t="s">
+        <v>143</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>19330051920020</v>
+      </c>
+      <c r="B120" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" t="s">
+        <v>143</v>
+      </c>
+      <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>19330051920020</v>
+      </c>
+      <c r="B121" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" t="s">
+        <v>143</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>19330051920022</v>
+      </c>
+      <c r="B122" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122" t="s">
+        <v>115</v>
+      </c>
+      <c r="D122" t="s">
+        <v>144</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>19330051920022</v>
+      </c>
+      <c r="B123" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" t="s">
+        <v>115</v>
+      </c>
+      <c r="D123" t="s">
+        <v>144</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>19330051920022</v>
+      </c>
+      <c r="B124" t="s">
+        <v>84</v>
+      </c>
+      <c r="C124" t="s">
+        <v>115</v>
+      </c>
+      <c r="D124" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>19330051920022</v>
+      </c>
+      <c r="B125" t="s">
+        <v>84</v>
+      </c>
+      <c r="C125" t="s">
+        <v>115</v>
+      </c>
+      <c r="D125" t="s">
+        <v>144</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>19330051920022</v>
+      </c>
+      <c r="B126" t="s">
+        <v>84</v>
+      </c>
+      <c r="C126" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126" t="s">
+        <v>144</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>19330051920022</v>
+      </c>
+      <c r="B127" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" t="s">
+        <v>115</v>
+      </c>
+      <c r="D127" t="s">
+        <v>144</v>
+      </c>
+      <c r="E127" t="s">
+        <v>5</v>
+      </c>
+      <c r="F127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>19330051920022</v>
+      </c>
+      <c r="B128" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" t="s">
+        <v>115</v>
+      </c>
+      <c r="D128" t="s">
+        <v>144</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>19330051920021</v>
+      </c>
+      <c r="B129" t="s">
+        <v>84</v>
+      </c>
+      <c r="C129" t="s">
+        <v>116</v>
+      </c>
+      <c r="D129" t="s">
+        <v>145</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>19330051920021</v>
+      </c>
+      <c r="B130" t="s">
+        <v>84</v>
+      </c>
+      <c r="C130" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" t="s">
+        <v>145</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>19330051920021</v>
+      </c>
+      <c r="B131" t="s">
+        <v>84</v>
+      </c>
+      <c r="C131" t="s">
+        <v>116</v>
+      </c>
+      <c r="D131" t="s">
+        <v>145</v>
+      </c>
+      <c r="E131" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>19330051920021</v>
+      </c>
+      <c r="B132" t="s">
+        <v>84</v>
+      </c>
+      <c r="C132" t="s">
+        <v>116</v>
+      </c>
+      <c r="D132" t="s">
+        <v>145</v>
+      </c>
+      <c r="E132" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>19330051920021</v>
+      </c>
+      <c r="B133" t="s">
+        <v>84</v>
+      </c>
+      <c r="C133" t="s">
+        <v>116</v>
+      </c>
+      <c r="D133" t="s">
+        <v>145</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>19330051920023</v>
+      </c>
+      <c r="B134" t="s">
+        <v>85</v>
+      </c>
+      <c r="C134" t="s">
+        <v>117</v>
+      </c>
+      <c r="D134" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>19330051920023</v>
+      </c>
+      <c r="B135" t="s">
+        <v>85</v>
+      </c>
+      <c r="C135" t="s">
+        <v>117</v>
+      </c>
+      <c r="D135" t="s">
+        <v>146</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>19330051920023</v>
+      </c>
+      <c r="B136" t="s">
+        <v>85</v>
+      </c>
+      <c r="C136" t="s">
+        <v>117</v>
+      </c>
+      <c r="D136" t="s">
+        <v>146</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>19330051920023</v>
+      </c>
+      <c r="B137" t="s">
+        <v>85</v>
+      </c>
+      <c r="C137" t="s">
+        <v>117</v>
+      </c>
+      <c r="D137" t="s">
+        <v>146</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>19330051920023</v>
+      </c>
+      <c r="B138" t="s">
+        <v>85</v>
+      </c>
+      <c r="C138" t="s">
+        <v>117</v>
+      </c>
+      <c r="D138" t="s">
+        <v>146</v>
+      </c>
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>19330051920023</v>
+      </c>
+      <c r="B139" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" t="s">
+        <v>117</v>
+      </c>
+      <c r="D139" t="s">
+        <v>146</v>
+      </c>
+      <c r="E139" t="s">
+        <v>5</v>
+      </c>
+      <c r="F139" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>19330051920023</v>
+      </c>
+      <c r="B140" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>19330051920026</v>
+      </c>
+      <c r="B141" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" t="s">
+        <v>117</v>
+      </c>
+      <c r="D141" t="s">
+        <v>147</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>19330051920026</v>
+      </c>
+      <c r="B142" t="s">
+        <v>86</v>
+      </c>
+      <c r="C142" t="s">
+        <v>117</v>
+      </c>
+      <c r="D142" t="s">
+        <v>147</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>19330051920026</v>
+      </c>
+      <c r="B143" t="s">
+        <v>86</v>
+      </c>
+      <c r="C143" t="s">
+        <v>117</v>
+      </c>
+      <c r="D143" t="s">
+        <v>147</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>19330051920026</v>
+      </c>
+      <c r="B144" t="s">
+        <v>86</v>
+      </c>
+      <c r="C144" t="s">
+        <v>117</v>
+      </c>
+      <c r="D144" t="s">
+        <v>147</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4</v>
+      </c>
+      <c r="F144" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>19330051920026</v>
+      </c>
+      <c r="B145" t="s">
+        <v>86</v>
+      </c>
+      <c r="C145" t="s">
+        <v>117</v>
+      </c>
+      <c r="D145" t="s">
+        <v>147</v>
+      </c>
+      <c r="E145" t="s">
+        <v>7</v>
+      </c>
+      <c r="F145" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>19330051920026</v>
+      </c>
+      <c r="B146" t="s">
+        <v>86</v>
+      </c>
+      <c r="C146" t="s">
+        <v>117</v>
+      </c>
+      <c r="D146" t="s">
+        <v>147</v>
+      </c>
+      <c r="E146" t="s">
+        <v>5</v>
+      </c>
+      <c r="F146" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>19330051920026</v>
+      </c>
+      <c r="B147" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" t="s">
+        <v>117</v>
+      </c>
+      <c r="D147" t="s">
+        <v>147</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>18330061460390</v>
+      </c>
+      <c r="B148" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" t="s">
+        <v>118</v>
+      </c>
+      <c r="D148" t="s">
+        <v>148</v>
+      </c>
+      <c r="E148" t="s">
+        <v>7</v>
+      </c>
+      <c r="F148" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>18330061460390</v>
+      </c>
+      <c r="B149" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" t="s">
+        <v>118</v>
+      </c>
+      <c r="D149" t="s">
+        <v>148</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>18330061460390</v>
+      </c>
+      <c r="B150" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150" t="s">
+        <v>118</v>
+      </c>
+      <c r="D150" t="s">
+        <v>148</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>18330061460390</v>
+      </c>
+      <c r="B151" t="s">
+        <v>87</v>
+      </c>
+      <c r="C151" t="s">
+        <v>118</v>
+      </c>
+      <c r="D151" t="s">
+        <v>148</v>
+      </c>
+      <c r="E151" t="s">
+        <v>4</v>
+      </c>
+      <c r="F151" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>18330061460390</v>
+      </c>
+      <c r="B152" t="s">
+        <v>87</v>
+      </c>
+      <c r="C152" t="s">
+        <v>118</v>
+      </c>
+      <c r="D152" t="s">
+        <v>148</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>18330061460390</v>
+      </c>
+      <c r="B153" t="s">
+        <v>87</v>
+      </c>
+      <c r="C153" t="s">
+        <v>118</v>
+      </c>
+      <c r="D153" t="s">
+        <v>148</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>18330061460390</v>
+      </c>
+      <c r="B154" t="s">
+        <v>87</v>
+      </c>
+      <c r="C154" t="s">
+        <v>118</v>
+      </c>
+      <c r="D154" t="s">
+        <v>148</v>
+      </c>
+      <c r="E154" t="s">
+        <v>5</v>
+      </c>
+      <c r="F154" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>19330051920025</v>
+      </c>
+      <c r="B155" t="s">
+        <v>86</v>
+      </c>
+      <c r="C155" t="s">
+        <v>111</v>
+      </c>
+      <c r="D155" t="s">
+        <v>149</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>19330051920025</v>
+      </c>
+      <c r="B156" t="s">
+        <v>86</v>
+      </c>
+      <c r="C156" t="s">
+        <v>111</v>
+      </c>
+      <c r="D156" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156" t="s">
+        <v>7</v>
+      </c>
+      <c r="F156" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>19330051920025</v>
+      </c>
+      <c r="B157" t="s">
+        <v>86</v>
+      </c>
+      <c r="C157" t="s">
+        <v>111</v>
+      </c>
+      <c r="D157" t="s">
+        <v>149</v>
+      </c>
+      <c r="E157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>19330051920025</v>
+      </c>
+      <c r="B158" t="s">
+        <v>86</v>
+      </c>
+      <c r="C158" t="s">
+        <v>111</v>
+      </c>
+      <c r="D158" t="s">
+        <v>149</v>
+      </c>
+      <c r="E158" t="s">
+        <v>4</v>
+      </c>
+      <c r="F158" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>19330051920025</v>
+      </c>
+      <c r="B159" t="s">
+        <v>86</v>
+      </c>
+      <c r="C159" t="s">
+        <v>111</v>
+      </c>
+      <c r="D159" t="s">
+        <v>149</v>
+      </c>
+      <c r="E159" t="s">
+        <v>5</v>
+      </c>
+      <c r="F159" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>19330051920027</v>
+      </c>
+      <c r="B160" t="s">
+        <v>86</v>
+      </c>
+      <c r="C160" t="s">
+        <v>101</v>
+      </c>
+      <c r="D160" t="s">
+        <v>150</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>19330051920027</v>
+      </c>
+      <c r="B161" t="s">
+        <v>86</v>
+      </c>
+      <c r="C161" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161" t="s">
+        <v>150</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>19330051920027</v>
+      </c>
+      <c r="B162" t="s">
+        <v>86</v>
+      </c>
+      <c r="C162" t="s">
+        <v>101</v>
+      </c>
+      <c r="D162" t="s">
+        <v>150</v>
+      </c>
+      <c r="E162" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>19330051920027</v>
+      </c>
+      <c r="B163" t="s">
+        <v>86</v>
+      </c>
+      <c r="C163" t="s">
+        <v>101</v>
+      </c>
+      <c r="D163" t="s">
+        <v>150</v>
+      </c>
+      <c r="E163" t="s">
+        <v>4</v>
+      </c>
+      <c r="F163" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>19330051920027</v>
+      </c>
+      <c r="B164" t="s">
+        <v>86</v>
+      </c>
+      <c r="C164" t="s">
+        <v>101</v>
+      </c>
+      <c r="D164" t="s">
+        <v>150</v>
+      </c>
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>19330051920024</v>
+      </c>
+      <c r="B165" t="s">
+        <v>88</v>
+      </c>
+      <c r="C165" t="s">
+        <v>119</v>
+      </c>
+      <c r="D165" t="s">
+        <v>151</v>
+      </c>
+      <c r="E165" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>19330051920024</v>
+      </c>
+      <c r="B166" t="s">
+        <v>88</v>
+      </c>
+      <c r="C166" t="s">
+        <v>119</v>
+      </c>
+      <c r="D166" t="s">
+        <v>151</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>19330051920024</v>
+      </c>
+      <c r="B167" t="s">
+        <v>88</v>
+      </c>
+      <c r="C167" t="s">
+        <v>119</v>
+      </c>
+      <c r="D167" t="s">
+        <v>151</v>
+      </c>
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>19330051920024</v>
+      </c>
+      <c r="B168" t="s">
+        <v>88</v>
+      </c>
+      <c r="C168" t="s">
+        <v>119</v>
+      </c>
+      <c r="D168" t="s">
+        <v>151</v>
+      </c>
+      <c r="E168" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>19330051920024</v>
+      </c>
+      <c r="B169" t="s">
+        <v>88</v>
+      </c>
+      <c r="C169" t="s">
+        <v>119</v>
+      </c>
+      <c r="D169" t="s">
+        <v>151</v>
+      </c>
+      <c r="E169" t="s">
+        <v>5</v>
+      </c>
+      <c r="F169" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>19330051920024</v>
+      </c>
+      <c r="B170" t="s">
+        <v>88</v>
+      </c>
+      <c r="C170" t="s">
+        <v>119</v>
+      </c>
+      <c r="D170" t="s">
+        <v>151</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>19330051920024</v>
+      </c>
+      <c r="B171" t="s">
+        <v>88</v>
+      </c>
+      <c r="C171" t="s">
+        <v>119</v>
+      </c>
+      <c r="D171" t="s">
+        <v>151</v>
+      </c>
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>19330051920029</v>
+      </c>
+      <c r="B172" t="s">
+        <v>89</v>
+      </c>
+      <c r="C172" t="s">
+        <v>84</v>
+      </c>
+      <c r="D172" t="s">
+        <v>152</v>
+      </c>
+      <c r="E172" t="s">
+        <v>7</v>
+      </c>
+      <c r="F172" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>19330051920029</v>
+      </c>
+      <c r="B173" t="s">
+        <v>89</v>
+      </c>
+      <c r="C173" t="s">
+        <v>84</v>
+      </c>
+      <c r="D173" t="s">
+        <v>152</v>
+      </c>
+      <c r="E173" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>19330051920029</v>
+      </c>
+      <c r="B174" t="s">
+        <v>89</v>
+      </c>
+      <c r="C174" t="s">
+        <v>84</v>
+      </c>
+      <c r="D174" t="s">
+        <v>152</v>
+      </c>
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+      <c r="F174" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>19330051920029</v>
+      </c>
+      <c r="B175" t="s">
+        <v>89</v>
+      </c>
+      <c r="C175" t="s">
+        <v>84</v>
+      </c>
+      <c r="D175" t="s">
+        <v>152</v>
+      </c>
+      <c r="E175" t="s">
+        <v>4</v>
+      </c>
+      <c r="F175" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>19330051920029</v>
+      </c>
+      <c r="B176" t="s">
+        <v>89</v>
+      </c>
+      <c r="C176" t="s">
+        <v>84</v>
+      </c>
+      <c r="D176" t="s">
+        <v>152</v>
+      </c>
+      <c r="E176" t="s">
+        <v>8</v>
+      </c>
+      <c r="F176" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>19330051920029</v>
+      </c>
+      <c r="B177" t="s">
+        <v>89</v>
+      </c>
+      <c r="C177" t="s">
+        <v>84</v>
+      </c>
+      <c r="D177" t="s">
+        <v>152</v>
+      </c>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>19330051920029</v>
+      </c>
+      <c r="B178" t="s">
+        <v>89</v>
+      </c>
+      <c r="C178" t="s">
+        <v>84</v>
+      </c>
+      <c r="D178" t="s">
+        <v>152</v>
+      </c>
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>19330051920030</v>
+      </c>
+      <c r="B179" t="s">
+        <v>89</v>
+      </c>
+      <c r="C179" t="s">
+        <v>89</v>
+      </c>
+      <c r="D179" t="s">
+        <v>153</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>19330051920030</v>
+      </c>
+      <c r="B180" t="s">
+        <v>89</v>
+      </c>
+      <c r="C180" t="s">
+        <v>89</v>
+      </c>
+      <c r="D180" t="s">
+        <v>153</v>
+      </c>
+      <c r="E180" t="s">
+        <v>4</v>
+      </c>
+      <c r="F180" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>19330051920030</v>
+      </c>
+      <c r="B181" t="s">
+        <v>89</v>
+      </c>
+      <c r="C181" t="s">
+        <v>89</v>
+      </c>
+      <c r="D181" t="s">
+        <v>153</v>
+      </c>
+      <c r="E181" t="s">
+        <v>5</v>
+      </c>
+      <c r="F181" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>19330051920030</v>
+      </c>
+      <c r="B182" t="s">
+        <v>89</v>
+      </c>
+      <c r="C182" t="s">
+        <v>89</v>
+      </c>
+      <c r="D182" t="s">
+        <v>153</v>
+      </c>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>19330051920030</v>
+      </c>
+      <c r="B183" t="s">
+        <v>89</v>
+      </c>
+      <c r="C183" t="s">
+        <v>89</v>
+      </c>
+      <c r="D183" t="s">
+        <v>153</v>
+      </c>
+      <c r="E183" t="s">
+        <v>7</v>
+      </c>
+      <c r="F183" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>19330051920032</v>
+      </c>
+      <c r="B184" t="s">
+        <v>90</v>
+      </c>
+      <c r="C184" t="s">
+        <v>120</v>
+      </c>
+      <c r="D184" t="s">
+        <v>154</v>
+      </c>
+      <c r="E184" t="s">
+        <v>4</v>
+      </c>
+      <c r="F184" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>19330051920032</v>
+      </c>
+      <c r="B185" t="s">
+        <v>90</v>
+      </c>
+      <c r="C185" t="s">
+        <v>120</v>
+      </c>
+      <c r="D185" t="s">
+        <v>154</v>
+      </c>
+      <c r="E185" t="s">
+        <v>8</v>
+      </c>
+      <c r="F185" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>19330051920032</v>
+      </c>
+      <c r="B186" t="s">
+        <v>90</v>
+      </c>
+      <c r="C186" t="s">
+        <v>120</v>
+      </c>
+      <c r="D186" t="s">
+        <v>154</v>
+      </c>
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>19330051920032</v>
+      </c>
+      <c r="B187" t="s">
+        <v>90</v>
+      </c>
+      <c r="C187" t="s">
+        <v>120</v>
+      </c>
+      <c r="D187" t="s">
+        <v>154</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>19330051920032</v>
+      </c>
+      <c r="B188" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" t="s">
+        <v>120</v>
+      </c>
+      <c r="D188" t="s">
+        <v>154</v>
+      </c>
+      <c r="E188" t="s">
+        <v>7</v>
+      </c>
+      <c r="F188" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>19330051920032</v>
+      </c>
+      <c r="B189" t="s">
+        <v>90</v>
+      </c>
+      <c r="C189" t="s">
+        <v>120</v>
+      </c>
+      <c r="D189" t="s">
+        <v>154</v>
+      </c>
+      <c r="E189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>19330051920032</v>
+      </c>
+      <c r="B190" t="s">
+        <v>90</v>
+      </c>
+      <c r="C190" t="s">
+        <v>120</v>
+      </c>
+      <c r="D190" t="s">
+        <v>154</v>
+      </c>
+      <c r="E190" t="s">
+        <v>5</v>
+      </c>
+      <c r="F190" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>19330051920031</v>
+      </c>
+      <c r="B191" t="s">
+        <v>91</v>
+      </c>
+      <c r="C191" t="s">
+        <v>121</v>
+      </c>
+      <c r="D191" t="s">
+        <v>155</v>
+      </c>
+      <c r="E191" t="s">
+        <v>4</v>
+      </c>
+      <c r="F191" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>19330051920031</v>
+      </c>
+      <c r="B192" t="s">
+        <v>91</v>
+      </c>
+      <c r="C192" t="s">
+        <v>121</v>
+      </c>
+      <c r="D192" t="s">
+        <v>155</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>19330051920031</v>
+      </c>
+      <c r="B193" t="s">
+        <v>91</v>
+      </c>
+      <c r="C193" t="s">
+        <v>121</v>
+      </c>
+      <c r="D193" t="s">
+        <v>155</v>
+      </c>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>19330051920031</v>
+      </c>
+      <c r="B194" t="s">
+        <v>91</v>
+      </c>
+      <c r="C194" t="s">
+        <v>121</v>
+      </c>
+      <c r="D194" t="s">
+        <v>155</v>
+      </c>
+      <c r="E194" t="s">
+        <v>7</v>
+      </c>
+      <c r="F194" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>19330051920031</v>
+      </c>
+      <c r="B195" t="s">
+        <v>91</v>
+      </c>
+      <c r="C195" t="s">
+        <v>121</v>
+      </c>
+      <c r="D195" t="s">
+        <v>155</v>
+      </c>
+      <c r="E195" t="s">
+        <v>5</v>
+      </c>
+      <c r="F195" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>19330051920035</v>
+      </c>
+      <c r="B196" t="s">
+        <v>92</v>
+      </c>
+      <c r="C196" t="s">
+        <v>89</v>
+      </c>
+      <c r="D196" t="s">
+        <v>156</v>
+      </c>
+      <c r="E196" t="s">
+        <v>5</v>
+      </c>
+      <c r="F196" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>19330051920035</v>
+      </c>
+      <c r="B197" t="s">
+        <v>92</v>
+      </c>
+      <c r="C197" t="s">
+        <v>89</v>
+      </c>
+      <c r="D197" t="s">
+        <v>156</v>
+      </c>
+      <c r="E197" t="s">
+        <v>8</v>
+      </c>
+      <c r="F197" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>19330051920035</v>
+      </c>
+      <c r="B198" t="s">
+        <v>92</v>
+      </c>
+      <c r="C198" t="s">
+        <v>89</v>
+      </c>
+      <c r="D198" t="s">
+        <v>156</v>
+      </c>
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>19330051920035</v>
+      </c>
+      <c r="B199" t="s">
+        <v>92</v>
+      </c>
+      <c r="C199" t="s">
+        <v>89</v>
+      </c>
+      <c r="D199" t="s">
+        <v>156</v>
+      </c>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>19330051920035</v>
+      </c>
+      <c r="B200" t="s">
+        <v>92</v>
+      </c>
+      <c r="C200" t="s">
+        <v>89</v>
+      </c>
+      <c r="D200" t="s">
+        <v>156</v>
+      </c>
+      <c r="E200" t="s">
+        <v>4</v>
+      </c>
+      <c r="F200" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>19330051920035</v>
+      </c>
+      <c r="B201" t="s">
+        <v>92</v>
+      </c>
+      <c r="C201" t="s">
+        <v>89</v>
+      </c>
+      <c r="D201" t="s">
+        <v>156</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>19330051920035</v>
+      </c>
+      <c r="B202" t="s">
+        <v>92</v>
+      </c>
+      <c r="C202" t="s">
+        <v>89</v>
+      </c>
+      <c r="D202" t="s">
+        <v>156</v>
+      </c>
+      <c r="E202" t="s">
+        <v>7</v>
+      </c>
+      <c r="F202" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>19330051920033</v>
+      </c>
+      <c r="B203" t="s">
+        <v>93</v>
+      </c>
+      <c r="C203" t="s">
+        <v>122</v>
+      </c>
+      <c r="D203" t="s">
+        <v>157</v>
+      </c>
+      <c r="E203" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>19330051920033</v>
+      </c>
+      <c r="B204" t="s">
+        <v>93</v>
+      </c>
+      <c r="C204" t="s">
+        <v>122</v>
+      </c>
+      <c r="D204" t="s">
+        <v>157</v>
+      </c>
+      <c r="E204" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>19330051920033</v>
+      </c>
+      <c r="B205" t="s">
+        <v>93</v>
+      </c>
+      <c r="C205" t="s">
+        <v>122</v>
+      </c>
+      <c r="D205" t="s">
+        <v>157</v>
+      </c>
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+      <c r="F205" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>19330051920033</v>
+      </c>
+      <c r="B206" t="s">
+        <v>93</v>
+      </c>
+      <c r="C206" t="s">
+        <v>122</v>
+      </c>
+      <c r="D206" t="s">
+        <v>157</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>19330051920033</v>
+      </c>
+      <c r="B207" t="s">
+        <v>93</v>
+      </c>
+      <c r="C207" t="s">
+        <v>122</v>
+      </c>
+      <c r="D207" t="s">
+        <v>157</v>
+      </c>
+      <c r="E207" t="s">
+        <v>7</v>
+      </c>
+      <c r="F207" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>19330051920033</v>
+      </c>
+      <c r="B208" t="s">
+        <v>93</v>
+      </c>
+      <c r="C208" t="s">
+        <v>122</v>
+      </c>
+      <c r="D208" t="s">
+        <v>157</v>
+      </c>
+      <c r="E208" t="s">
+        <v>8</v>
+      </c>
+      <c r="F208" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>19330051920033</v>
+      </c>
+      <c r="B209" t="s">
+        <v>93</v>
+      </c>
+      <c r="C209" t="s">
+        <v>122</v>
+      </c>
+      <c r="D209" t="s">
+        <v>157</v>
+      </c>
+      <c r="E209" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>19330051920034</v>
+      </c>
+      <c r="B210" t="s">
+        <v>94</v>
+      </c>
+      <c r="C210" t="s">
+        <v>119</v>
+      </c>
+      <c r="D210" t="s">
+        <v>158</v>
+      </c>
+      <c r="E210" t="s">
+        <v>5</v>
+      </c>
+      <c r="F210" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>19330051920034</v>
+      </c>
+      <c r="B211" t="s">
+        <v>94</v>
+      </c>
+      <c r="C211" t="s">
+        <v>119</v>
+      </c>
+      <c r="D211" t="s">
+        <v>158</v>
+      </c>
+      <c r="E211" t="s">
+        <v>4</v>
+      </c>
+      <c r="F211" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>19330051920034</v>
+      </c>
+      <c r="B212" t="s">
+        <v>94</v>
+      </c>
+      <c r="C212" t="s">
+        <v>119</v>
+      </c>
+      <c r="D212" t="s">
+        <v>158</v>
+      </c>
+      <c r="E212" t="s">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>19330051920034</v>
+      </c>
+      <c r="B213" t="s">
+        <v>94</v>
+      </c>
+      <c r="C213" t="s">
+        <v>119</v>
+      </c>
+      <c r="D213" t="s">
+        <v>158</v>
+      </c>
+      <c r="E213" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>19330051920034</v>
+      </c>
+      <c r="B214" t="s">
+        <v>94</v>
+      </c>
+      <c r="C214" t="s">
+        <v>119</v>
+      </c>
+      <c r="D214" t="s">
+        <v>158</v>
+      </c>
+      <c r="E214" t="s">
+        <v>7</v>
+      </c>
+      <c r="F214" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>19330051920034</v>
+      </c>
+      <c r="B215" t="s">
+        <v>94</v>
+      </c>
+      <c r="C215" t="s">
+        <v>119</v>
+      </c>
+      <c r="D215" t="s">
+        <v>158</v>
+      </c>
+      <c r="E215" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>19330051920034</v>
+      </c>
+      <c r="B216" t="s">
+        <v>94</v>
+      </c>
+      <c r="C216" t="s">
+        <v>119</v>
+      </c>
+      <c r="D216" t="s">
+        <v>158</v>
+      </c>
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>19330051920038</v>
+      </c>
+      <c r="B217" t="s">
+        <v>95</v>
+      </c>
+      <c r="C217" t="s">
+        <v>123</v>
+      </c>
+      <c r="D217" t="s">
+        <v>159</v>
+      </c>
+      <c r="E217" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>19330051920038</v>
+      </c>
+      <c r="B218" t="s">
+        <v>95</v>
+      </c>
+      <c r="C218" t="s">
+        <v>123</v>
+      </c>
+      <c r="D218" t="s">
+        <v>159</v>
+      </c>
+      <c r="E218" t="s">
+        <v>7</v>
+      </c>
+      <c r="F218" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>19330051920038</v>
+      </c>
+      <c r="B219" t="s">
+        <v>95</v>
+      </c>
+      <c r="C219" t="s">
+        <v>123</v>
+      </c>
+      <c r="D219" t="s">
+        <v>159</v>
+      </c>
+      <c r="E219" t="s">
+        <v>5</v>
+      </c>
+      <c r="F219" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>19330051920038</v>
+      </c>
+      <c r="B220" t="s">
+        <v>95</v>
+      </c>
+      <c r="C220" t="s">
+        <v>123</v>
+      </c>
+      <c r="D220" t="s">
+        <v>159</v>
+      </c>
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>19330051920038</v>
+      </c>
+      <c r="B221" t="s">
+        <v>95</v>
+      </c>
+      <c r="C221" t="s">
+        <v>123</v>
+      </c>
+      <c r="D221" t="s">
+        <v>159</v>
+      </c>
+      <c r="E221" t="s">
+        <v>4</v>
+      </c>
+      <c r="F221" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>19330051920037</v>
+      </c>
+      <c r="B222" t="s">
+        <v>96</v>
+      </c>
+      <c r="C222" t="s">
+        <v>124</v>
+      </c>
+      <c r="D222" t="s">
+        <v>160</v>
+      </c>
+      <c r="E222" t="s">
+        <v>5</v>
+      </c>
+      <c r="F222" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>19330051920037</v>
+      </c>
+      <c r="B223" t="s">
+        <v>96</v>
+      </c>
+      <c r="C223" t="s">
+        <v>124</v>
+      </c>
+      <c r="D223" t="s">
+        <v>160</v>
+      </c>
+      <c r="E223" t="s">
+        <v>7</v>
+      </c>
+      <c r="F223" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>19330051920037</v>
+      </c>
+      <c r="B224" t="s">
+        <v>96</v>
+      </c>
+      <c r="C224" t="s">
+        <v>124</v>
+      </c>
+      <c r="D224" t="s">
+        <v>160</v>
+      </c>
+      <c r="E224" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>19330051920037</v>
+      </c>
+      <c r="B225" t="s">
+        <v>96</v>
+      </c>
+      <c r="C225" t="s">
+        <v>124</v>
+      </c>
+      <c r="D225" t="s">
+        <v>160</v>
+      </c>
+      <c r="E225" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>19330051920037</v>
+      </c>
+      <c r="B226" t="s">
+        <v>96</v>
+      </c>
+      <c r="C226" t="s">
+        <v>124</v>
+      </c>
+      <c r="D226" t="s">
+        <v>160</v>
+      </c>
+      <c r="E226" t="s">
+        <v>4</v>
+      </c>
+      <c r="F226" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>19330051920037</v>
+      </c>
+      <c r="B227" t="s">
+        <v>96</v>
+      </c>
+      <c r="C227" t="s">
+        <v>124</v>
+      </c>
+      <c r="D227" t="s">
+        <v>160</v>
+      </c>
+      <c r="E227" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>19330051920037</v>
+      </c>
+      <c r="B228" t="s">
+        <v>96</v>
+      </c>
+      <c r="C228" t="s">
+        <v>124</v>
+      </c>
+      <c r="D228" t="s">
+        <v>160</v>
+      </c>
+      <c r="E228" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>19330051920036</v>
+      </c>
+      <c r="B229" t="s">
+        <v>97</v>
+      </c>
+      <c r="C229" t="s">
+        <v>88</v>
+      </c>
+      <c r="D229" t="s">
+        <v>161</v>
+      </c>
+      <c r="E229" t="s">
+        <v>8</v>
+      </c>
+      <c r="F229" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>19330051920036</v>
+      </c>
+      <c r="B230" t="s">
+        <v>97</v>
+      </c>
+      <c r="C230" t="s">
+        <v>88</v>
+      </c>
+      <c r="D230" t="s">
+        <v>161</v>
+      </c>
+      <c r="E230" t="s">
+        <v>7</v>
+      </c>
+      <c r="F230" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>19330051920036</v>
+      </c>
+      <c r="B231" t="s">
+        <v>97</v>
+      </c>
+      <c r="C231" t="s">
+        <v>88</v>
+      </c>
+      <c r="D231" t="s">
+        <v>161</v>
+      </c>
+      <c r="E231" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>19330051920036</v>
+      </c>
+      <c r="B232" t="s">
+        <v>97</v>
+      </c>
+      <c r="C232" t="s">
+        <v>88</v>
+      </c>
+      <c r="D232" t="s">
+        <v>161</v>
+      </c>
+      <c r="E232" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>19330051920036</v>
+      </c>
+      <c r="B233" t="s">
+        <v>97</v>
+      </c>
+      <c r="C233" t="s">
+        <v>88</v>
+      </c>
+      <c r="D233" t="s">
+        <v>161</v>
+      </c>
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
+      <c r="F233" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>19330051920036</v>
+      </c>
+      <c r="B234" t="s">
+        <v>97</v>
+      </c>
+      <c r="C234" t="s">
+        <v>88</v>
+      </c>
+      <c r="D234" t="s">
+        <v>161</v>
+      </c>
+      <c r="E234" t="s">
+        <v>4</v>
+      </c>
+      <c r="F234" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>19330051920036</v>
+      </c>
+      <c r="B235" t="s">
+        <v>97</v>
+      </c>
+      <c r="C235" t="s">
+        <v>88</v>
+      </c>
+      <c r="D235" t="s">
+        <v>161</v>
+      </c>
+      <c r="E235" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>19330051920039</v>
+      </c>
+      <c r="B236" t="s">
+        <v>98</v>
+      </c>
+      <c r="C236" t="s">
+        <v>125</v>
+      </c>
+      <c r="D236" t="s">
+        <v>162</v>
+      </c>
+      <c r="E236" t="s">
+        <v>5</v>
+      </c>
+      <c r="F236" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>19330051920039</v>
+      </c>
+      <c r="B237" t="s">
+        <v>98</v>
+      </c>
+      <c r="C237" t="s">
+        <v>125</v>
+      </c>
+      <c r="D237" t="s">
+        <v>162</v>
+      </c>
+      <c r="E237" t="s">
+        <v>10</v>
+      </c>
+      <c r="F237" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>19330051920039</v>
+      </c>
+      <c r="B238" t="s">
+        <v>98</v>
+      </c>
+      <c r="C238" t="s">
+        <v>125</v>
+      </c>
+      <c r="D238" t="s">
+        <v>162</v>
+      </c>
+      <c r="E238" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>19330051920039</v>
+      </c>
+      <c r="B239" t="s">
+        <v>98</v>
+      </c>
+      <c r="C239" t="s">
+        <v>125</v>
+      </c>
+      <c r="D239" t="s">
+        <v>162</v>
+      </c>
+      <c r="E239" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>19330051920039</v>
+      </c>
+      <c r="B240" t="s">
+        <v>98</v>
+      </c>
+      <c r="C240" t="s">
+        <v>125</v>
+      </c>
+      <c r="D240" t="s">
+        <v>162</v>
+      </c>
+      <c r="E240" t="s">
+        <v>7</v>
+      </c>
+      <c r="F240" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>19330051920039</v>
+      </c>
+      <c r="B241" t="s">
+        <v>98</v>
+      </c>
+      <c r="C241" t="s">
+        <v>125</v>
+      </c>
+      <c r="D241" t="s">
+        <v>162</v>
+      </c>
+      <c r="E241" t="s">
+        <v>4</v>
+      </c>
+      <c r="F241" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>19330051920039</v>
+      </c>
+      <c r="B242" t="s">
+        <v>98</v>
+      </c>
+      <c r="C242" t="s">
+        <v>125</v>
+      </c>
+      <c r="D242" t="s">
+        <v>162</v>
+      </c>
+      <c r="E242" t="s">
+        <v>6</v>
+      </c>
+      <c r="F242" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
         <v>19330051920040</v>
       </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B243" t="s">
+        <v>99</v>
+      </c>
+      <c r="C243" t="s">
+        <v>124</v>
+      </c>
+      <c r="D243" t="s">
+        <v>131</v>
+      </c>
+      <c r="E243" t="s">
         <v>4</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F243" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>19330051920040</v>
+      </c>
+      <c r="B244" t="s">
+        <v>99</v>
+      </c>
+      <c r="C244" t="s">
+        <v>124</v>
+      </c>
+      <c r="D244" t="s">
+        <v>131</v>
+      </c>
+      <c r="E244" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>19330051920040</v>
+      </c>
+      <c r="B245" t="s">
+        <v>99</v>
+      </c>
+      <c r="C245" t="s">
+        <v>124</v>
+      </c>
+      <c r="D245" t="s">
+        <v>131</v>
+      </c>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>19330051920040</v>
+      </c>
+      <c r="B246" t="s">
+        <v>99</v>
+      </c>
+      <c r="C246" t="s">
+        <v>124</v>
+      </c>
+      <c r="D246" t="s">
+        <v>131</v>
+      </c>
+      <c r="E246" t="s">
+        <v>8</v>
+      </c>
+      <c r="F246" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>19330051920040</v>
+      </c>
+      <c r="B247" t="s">
+        <v>99</v>
+      </c>
+      <c r="C247" t="s">
+        <v>124</v>
+      </c>
+      <c r="D247" t="s">
+        <v>131</v>
+      </c>
+      <c r="E247" t="s">
+        <v>7</v>
+      </c>
+      <c r="F247" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>19330051920040</v>
+      </c>
+      <c r="B248" t="s">
+        <v>99</v>
+      </c>
+      <c r="C248" t="s">
+        <v>124</v>
+      </c>
+      <c r="D248" t="s">
+        <v>131</v>
+      </c>
+      <c r="E248" t="s">
+        <v>6</v>
+      </c>
+      <c r="F248" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>19330051920040</v>
+      </c>
+      <c r="B249" t="s">
+        <v>99</v>
+      </c>
+      <c r="C249" t="s">
+        <v>124</v>
+      </c>
+      <c r="D249" t="s">
+        <v>131</v>
+      </c>
+      <c r="E249" t="s">
+        <v>5</v>
+      </c>
+      <c r="F249" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4621,13 +8941,13 @@
         <v>19330051920039</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -4638,13 +8958,13 @@
         <v>19330051920417</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -4655,13 +8975,13 @@
         <v>19330051920014</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4672,13 +8992,13 @@
         <v>19330051920016</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -4689,13 +9009,13 @@
         <v>19330051920010</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4706,13 +9026,13 @@
         <v>19330051920026</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4723,13 +9043,13 @@
         <v>19330051920032</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4740,13 +9060,13 @@
         <v>19330051920033</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4757,13 +9077,13 @@
         <v>19330051920036</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4777,10 +9097,10 @@
         <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4791,13 +9111,13 @@
         <v>19330051920007</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4808,13 +9128,13 @@
         <v>19330051920012</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4825,13 +9145,13 @@
         <v>19330051920011</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4842,13 +9162,13 @@
         <v>18330051920168</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4859,13 +9179,13 @@
         <v>19330051920422</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4876,13 +9196,13 @@
         <v>18330061460390</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4893,13 +9213,13 @@
         <v>19330051920024</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4910,13 +9230,13 @@
         <v>19330051920035</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4927,13 +9247,13 @@
         <v>19330051920034</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4944,13 +9264,13 @@
         <v>19330051920038</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4961,13 +9281,13 @@
         <v>19330051920037</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4978,13 +9298,13 @@
         <v>19330051920040</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4995,13 +9315,13 @@
         <v>19330051920005</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5012,13 +9332,13 @@
         <v>19330051920004</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5029,13 +9349,13 @@
         <v>19330051920006</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5046,13 +9366,13 @@
         <v>19330051920008</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5063,13 +9383,13 @@
         <v>19330051920015</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5080,13 +9400,13 @@
         <v>19330051920009</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5097,13 +9417,13 @@
         <v>19330051920017</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5114,13 +9434,13 @@
         <v>19330051920018</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -5131,13 +9451,13 @@
         <v>19330051920020</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -5148,13 +9468,13 @@
         <v>19330051920022</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5165,13 +9485,13 @@
         <v>19330051920021</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -5182,13 +9502,13 @@
         <v>19330051920023</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5199,13 +9519,13 @@
         <v>19330051920025</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -5216,13 +9536,13 @@
         <v>19330051920027</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5233,13 +9553,13 @@
         <v>19330051920029</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -5250,13 +9570,13 @@
         <v>19330051920030</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5267,13 +9587,13 @@
         <v>19330051920031</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -5286,7 +9606,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5319,328 +9639,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920168</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920422</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920422</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920024</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>19330051920024</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>19330051920003</v>
-      </c>
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920012</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>19330051920011</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330061460390</v>
-      </c>
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>19330051920035</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>19330051920034</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>19330051920038</v>
-      </c>
-      <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>19330051920040</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/4AEM - Estadisticos 2020.xlsx
+++ b/grupos/4AEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="163">
   <si>
     <t>Materia</t>
   </si>
@@ -200,16 +200,16 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
+    <t>Avila Coronado Julieta</t>
+  </si>
+  <si>
+    <t>Jimenez Nieto Enrique</t>
+  </si>
+  <si>
     <t>Rodríguez Román Leticia</t>
-  </si>
-  <si>
-    <t>Avila Coronado Julieta</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Jimenez Nieto Enrique</t>
   </si>
   <si>
     <t>Rivera Cruz Ezequiel</t>
@@ -981,7 +981,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -1005,7 +1005,7 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K4">
         <v>-1</v>
@@ -1014,10 +1014,10 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O4">
         <v>-1</v>
@@ -1070,10 +1070,10 @@
         <v>7</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K5">
         <v>-1</v>
@@ -1082,10 +1082,10 @@
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O5">
         <v>-1</v>
@@ -1138,10 +1138,10 @@
         <v>9</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -1153,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O6">
         <v>-1</v>
@@ -1206,10 +1206,10 @@
         <v>10</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>-1</v>
@@ -1277,7 +1277,7 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <v>-1</v>
@@ -1286,10 +1286,10 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O8">
         <v>-1</v>
@@ -1321,7 +1321,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -1342,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>-1</v>
@@ -1354,10 +1354,10 @@
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O9">
         <v>-1</v>
@@ -1410,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>-1</v>
@@ -1481,7 +1481,7 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <v>-1</v>
@@ -1490,10 +1490,10 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O11">
         <v>-1</v>
@@ -1558,10 +1558,10 @@
         <v>-1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O12">
         <v>-1</v>
@@ -1614,10 +1614,10 @@
         <v>9</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1626,10 +1626,10 @@
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="O13">
         <v>-1</v>
@@ -1694,10 +1694,10 @@
         <v>-1</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O14">
         <v>-1</v>
@@ -1753,7 +1753,7 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>-1</v>
@@ -1762,10 +1762,10 @@
         <v>-1</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O15">
         <v>-1</v>
@@ -1818,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K16">
         <v>-1</v>
@@ -1889,7 +1889,7 @@
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>-1</v>
@@ -1898,10 +1898,10 @@
         <v>-1</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O17">
         <v>-1</v>
@@ -1954,10 +1954,10 @@
         <v>9</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>-1</v>
@@ -2022,10 +2022,10 @@
         <v>10</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K19">
         <v>-1</v>
@@ -2069,7 +2069,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -2093,7 +2093,7 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K20">
         <v>-1</v>
@@ -2102,10 +2102,10 @@
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O20">
         <v>-1</v>
@@ -2137,7 +2137,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -2170,10 +2170,10 @@
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O21">
         <v>-1</v>
@@ -2226,10 +2226,10 @@
         <v>9</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K22">
         <v>-1</v>
@@ -2294,7 +2294,7 @@
         <v>8</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>-1</v>
@@ -2306,10 +2306,10 @@
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O23">
         <v>-1</v>
@@ -2362,10 +2362,10 @@
         <v>9</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K24">
         <v>-1</v>
@@ -2430,10 +2430,10 @@
         <v>9</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K25">
         <v>-1</v>
@@ -2442,10 +2442,10 @@
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O25">
         <v>-1</v>
@@ -2501,7 +2501,7 @@
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K26">
         <v>-1</v>
@@ -2510,10 +2510,10 @@
         <v>-1</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O26">
         <v>-1</v>
@@ -2545,7 +2545,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -2569,7 +2569,7 @@
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K27">
         <v>-1</v>
@@ -2578,10 +2578,10 @@
         <v>-1</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O27">
         <v>-1</v>
@@ -2637,7 +2637,7 @@
         <v>-1</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <v>-1</v>
@@ -2646,10 +2646,10 @@
         <v>-1</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O28">
         <v>-1</v>
@@ -2702,10 +2702,10 @@
         <v>10</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K29">
         <v>-1</v>
@@ -2770,10 +2770,10 @@
         <v>9</v>
       </c>
       <c r="I30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K30">
         <v>-1</v>
@@ -2838,10 +2838,10 @@
         <v>8</v>
       </c>
       <c r="I31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K31">
         <v>-1</v>
@@ -2850,10 +2850,10 @@
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O31">
         <v>-1</v>
@@ -2906,10 +2906,10 @@
         <v>10</v>
       </c>
       <c r="I32">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K32">
         <v>-1</v>
@@ -2974,10 +2974,10 @@
         <v>9</v>
       </c>
       <c r="I33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K33">
         <v>-1</v>
@@ -3045,7 +3045,7 @@
         <v>-1</v>
       </c>
       <c r="J34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K34">
         <v>-1</v>
@@ -3054,10 +3054,10 @@
         <v>-1</v>
       </c>
       <c r="M34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N34">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O34">
         <v>-1</v>
@@ -3113,7 +3113,7 @@
         <v>-1</v>
       </c>
       <c r="J35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K35">
         <v>-1</v>
@@ -3122,10 +3122,10 @@
         <v>-1</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N35">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O35">
         <v>-1</v>
@@ -3157,7 +3157,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -3178,10 +3178,10 @@
         <v>9</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J36">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K36">
         <v>-1</v>
@@ -3190,10 +3190,10 @@
         <v>-1</v>
       </c>
       <c r="M36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O36">
         <v>-1</v>
@@ -3225,7 +3225,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -3249,7 +3249,7 @@
         <v>-1</v>
       </c>
       <c r="J37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K37">
         <v>-1</v>
@@ -3258,10 +3258,10 @@
         <v>-1</v>
       </c>
       <c r="M37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N37">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O37">
         <v>-1</v>
@@ -3293,7 +3293,7 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -3314,10 +3314,10 @@
         <v>-1</v>
       </c>
       <c r="I38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K38">
         <v>-1</v>
@@ -3326,10 +3326,10 @@
         <v>-1</v>
       </c>
       <c r="M38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N38">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O38">
         <v>-1</v>
@@ -3361,7 +3361,7 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -3385,7 +3385,7 @@
         <v>-1</v>
       </c>
       <c r="J39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K39">
         <v>-1</v>
@@ -3394,10 +3394,10 @@
         <v>-1</v>
       </c>
       <c r="M39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O39">
         <v>-1</v>
@@ -3429,7 +3429,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C40">
         <v>8</v>
@@ -3453,7 +3453,7 @@
         <v>-1</v>
       </c>
       <c r="J40">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K40">
         <v>-1</v>
@@ -3500,7 +3500,7 @@
         <v>-1</v>
       </c>
       <c r="C41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -3521,7 +3521,7 @@
         <v>-1</v>
       </c>
       <c r="J41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K41">
         <v>-1</v>
@@ -3530,10 +3530,10 @@
         <v>-1</v>
       </c>
       <c r="M41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="O41">
         <v>-1</v>
@@ -3589,7 +3589,7 @@
         <v>-1</v>
       </c>
       <c r="J42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K42">
         <v>-1</v>
@@ -3598,10 +3598,10 @@
         <v>-1</v>
       </c>
       <c r="M42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O42">
         <v>-1</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -3692,25 +3692,22 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>39</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>43.59</v>
-      </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>7.1</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="J2">
-        <v>56.41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3724,30 +3721,27 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>64.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>35.9</v>
-      </c>
-      <c r="H3">
-        <v>7.6</v>
+        <v>100</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -3756,30 +3750,27 @@
         <v>39</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="E4">
-        <v>9</v>
-      </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>76.92</v>
       </c>
-      <c r="G4">
-        <v>23.08</v>
-      </c>
-      <c r="H4">
-        <v>7.1</v>
-      </c>
       <c r="I4">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -3788,25 +3779,25 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>76.92</v>
+        <v>33.33</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>35.9</v>
       </c>
       <c r="H5">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="I5">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J5">
-        <v>23.08</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3820,25 +3811,25 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>79.48999999999999</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G6">
-        <v>17.95</v>
+        <v>28.21</v>
       </c>
       <c r="H6">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>2.56</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3864,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3896,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -3912,7 +3903,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F249"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3956,10 +3947,10 @@
         <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3976,10 +3967,10 @@
         <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3996,10 +3987,10 @@
         <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4019,44 +4010,44 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920003</v>
+        <v>19330051920005</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920003</v>
+        <v>19330051920005</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -4064,16 +4055,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920003</v>
+        <v>19330051920005</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -4084,96 +4075,96 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920005</v>
+        <v>19330051920004</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920005</v>
+        <v>19330051920004</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920005</v>
+        <v>19330051920004</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920005</v>
+        <v>19330051920006</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920005</v>
+        <v>19330051920006</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
         <v>7</v>
@@ -4184,19 +4175,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920005</v>
+        <v>19330051920006</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>62</v>
@@ -4204,236 +4195,236 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920004</v>
+        <v>19330051920417</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920004</v>
+        <v>19330051920417</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920004</v>
+        <v>19330051920417</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920004</v>
+        <v>19330051920417</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920004</v>
+        <v>19330051920007</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920004</v>
+        <v>19330051920007</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920004</v>
+        <v>19330051920007</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920006</v>
+        <v>19330051920007</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920006</v>
+        <v>19330051920008</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920006</v>
+        <v>19330051920008</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920006</v>
+        <v>19330051920008</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920006</v>
+        <v>19330051920014</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -4444,39 +4435,39 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920417</v>
+        <v>19330051920014</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920417</v>
+        <v>19330051920014</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
         <v>62</v>
@@ -4484,519 +4475,519 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920417</v>
+        <v>19330051920014</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920417</v>
+        <v>19330051920016</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D30" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920417</v>
+        <v>19330051920016</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920417</v>
+        <v>19330051920016</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D32" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920417</v>
+        <v>19330051920016</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920007</v>
+        <v>19330051920015</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920007</v>
+        <v>19330051920015</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920007</v>
+        <v>19330051920015</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920007</v>
+        <v>19330051920012</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920007</v>
+        <v>19330051920012</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920007</v>
+        <v>19330051920012</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920007</v>
+        <v>19330051920012</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920008</v>
+        <v>19330051920011</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920008</v>
+        <v>19330051920011</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920008</v>
+        <v>19330051920011</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920008</v>
+        <v>19330051920011</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920008</v>
+        <v>19330051920011</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920014</v>
+        <v>19330051920009</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920014</v>
+        <v>19330051920009</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920014</v>
+        <v>19330051920009</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920014</v>
+        <v>19330051920010</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920014</v>
+        <v>19330051920010</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920014</v>
+        <v>19330051920010</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920014</v>
+        <v>19330051920010</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920016</v>
+        <v>19330051920010</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920016</v>
+        <v>19330051920017</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
         <v>60</v>
@@ -5004,96 +4995,96 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920016</v>
+        <v>19330051920017</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920016</v>
+        <v>19330051920017</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920016</v>
+        <v>19330051920018</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920016</v>
+        <v>19330051920018</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920016</v>
+        <v>19330051920018</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
@@ -5104,59 +5095,59 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920015</v>
+        <v>18330051920168</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920015</v>
+        <v>18330051920168</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920015</v>
+        <v>18330051920168</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
         <v>63</v>
@@ -5164,159 +5155,159 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920015</v>
+        <v>18330051920168</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920015</v>
+        <v>19330051920422</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920012</v>
+        <v>19330051920422</v>
       </c>
       <c r="B65" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920012</v>
+        <v>19330051920422</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920012</v>
+        <v>19330051920422</v>
       </c>
       <c r="B67" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920012</v>
+        <v>19330051920422</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920012</v>
+        <v>19330051920020</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920012</v>
+        <v>19330051920020</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D70" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
         <v>60</v>
@@ -5324,39 +5315,39 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920012</v>
+        <v>19330051920020</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D71" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920011</v>
+        <v>19330051920022</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F72" t="s">
         <v>60</v>
@@ -5364,599 +5355,599 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920011</v>
+        <v>19330051920022</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C73" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D73" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920011</v>
+        <v>19330051920022</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D74" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920011</v>
+        <v>19330051920022</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E75" t="s">
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920011</v>
+        <v>19330051920021</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920011</v>
+        <v>19330051920021</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920011</v>
+        <v>19330051920021</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C78" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D78" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920009</v>
+        <v>19330051920023</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920009</v>
+        <v>19330051920023</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D80" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920009</v>
+        <v>19330051920023</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D81" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920009</v>
+        <v>19330051920026</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D82" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920009</v>
+        <v>19330051920026</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D83" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920009</v>
+        <v>19330051920026</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D84" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920009</v>
+        <v>19330051920026</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920010</v>
+        <v>18330061460390</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E86" t="s">
         <v>6</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920010</v>
+        <v>18330061460390</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920010</v>
+        <v>18330061460390</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D88" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E88" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920010</v>
+        <v>18330061460390</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920010</v>
+        <v>19330051920025</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920010</v>
+        <v>19330051920025</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920010</v>
+        <v>19330051920025</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920017</v>
+        <v>19330051920027</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920017</v>
+        <v>19330051920027</v>
       </c>
       <c r="B94" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D94" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E94" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920017</v>
+        <v>19330051920027</v>
       </c>
       <c r="B95" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920017</v>
+        <v>19330051920024</v>
       </c>
       <c r="B96" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D96" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920017</v>
+        <v>19330051920024</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D97" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920018</v>
+        <v>19330051920024</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D98" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>19330051920018</v>
+        <v>19330051920024</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>19330051920018</v>
+        <v>19330051920029</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D100" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>19330051920018</v>
+        <v>19330051920029</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D101" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E101" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>19330051920018</v>
+        <v>19330051920029</v>
       </c>
       <c r="B102" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D102" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
         <v>62</v>
@@ -5964,19 +5955,19 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>18330051920168</v>
+        <v>19330051920030</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C103" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D103" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
         <v>62</v>
@@ -5984,36 +5975,36 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>18330051920168</v>
+        <v>19330051920030</v>
       </c>
       <c r="B104" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C104" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D104" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>18330051920168</v>
+        <v>19330051920030</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D105" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E105" t="s">
         <v>7</v>
@@ -6024,79 +6015,79 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>18330051920168</v>
+        <v>19330051920032</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D106" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>18330051920168</v>
+        <v>19330051920032</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C107" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>18330051920168</v>
+        <v>19330051920032</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C108" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D108" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>18330051920168</v>
+        <v>19330051920032</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C109" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D109" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E109" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F109" t="s">
         <v>60</v>
@@ -6104,59 +6095,59 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>19330051920422</v>
+        <v>19330051920031</v>
       </c>
       <c r="B110" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C110" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D110" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E110" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>19330051920422</v>
+        <v>19330051920031</v>
       </c>
       <c r="B111" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C111" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F111" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>19330051920422</v>
+        <v>19330051920031</v>
       </c>
       <c r="B112" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C112" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D112" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E112" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F112" t="s">
         <v>62</v>
@@ -6164,139 +6155,139 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>19330051920422</v>
+        <v>19330051920035</v>
       </c>
       <c r="B113" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C113" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D113" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E113" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>19330051920422</v>
+        <v>19330051920035</v>
       </c>
       <c r="B114" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C114" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D114" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E114" t="s">
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>19330051920422</v>
+        <v>19330051920035</v>
       </c>
       <c r="B115" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C115" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D115" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>19330051920422</v>
+        <v>19330051920035</v>
       </c>
       <c r="B116" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C116" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D116" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="E116" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>19330051920020</v>
+        <v>19330051920033</v>
       </c>
       <c r="B117" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F117" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>19330051920020</v>
+        <v>19330051920033</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C118" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D118" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E118" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>19330051920020</v>
+        <v>19330051920033</v>
       </c>
       <c r="B119" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C119" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
         <v>62</v>
@@ -6304,176 +6295,176 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>19330051920020</v>
+        <v>19330051920033</v>
       </c>
       <c r="B120" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C120" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="D120" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="E120" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>19330051920020</v>
+        <v>19330051920034</v>
       </c>
       <c r="B121" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C121" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D121" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="E121" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>19330051920022</v>
+        <v>19330051920034</v>
       </c>
       <c r="B122" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C122" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D122" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E122" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>19330051920022</v>
+        <v>19330051920034</v>
       </c>
       <c r="B123" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C123" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D123" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F123" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>19330051920022</v>
+        <v>19330051920038</v>
       </c>
       <c r="B124" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C124" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D124" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F124" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>19330051920022</v>
+        <v>19330051920038</v>
       </c>
       <c r="B125" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C125" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D125" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E125" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>19330051920022</v>
+        <v>19330051920038</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C126" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D126" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>19330051920022</v>
+        <v>19330051920038</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C127" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D127" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="E127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F127" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>19330051920022</v>
+        <v>19330051920037</v>
       </c>
       <c r="B128" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C128" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D128" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E128" t="s">
         <v>7</v>
@@ -6484,19 +6475,19 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>19330051920021</v>
+        <v>19330051920037</v>
       </c>
       <c r="B129" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C129" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D129" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>63</v>
@@ -6504,179 +6495,179 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>19330051920021</v>
+        <v>19330051920037</v>
       </c>
       <c r="B130" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C130" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D130" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E130" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>19330051920021</v>
+        <v>19330051920037</v>
       </c>
       <c r="B131" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C131" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="D131" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F131" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>19330051920021</v>
+        <v>19330051920036</v>
       </c>
       <c r="B132" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C132" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D132" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>19330051920021</v>
+        <v>19330051920036</v>
       </c>
       <c r="B133" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C133" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="D133" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E133" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F133" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>19330051920023</v>
+        <v>19330051920036</v>
       </c>
       <c r="B134" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C134" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D134" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E134" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>19330051920023</v>
+        <v>19330051920039</v>
       </c>
       <c r="B135" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C135" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D135" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F135" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>19330051920023</v>
+        <v>19330051920039</v>
       </c>
       <c r="B136" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C136" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D136" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E136" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>19330051920023</v>
+        <v>19330051920039</v>
       </c>
       <c r="B137" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C137" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D137" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F137" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>19330051920023</v>
+        <v>19330051920039</v>
       </c>
       <c r="B138" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C138" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D138" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E138" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F138" t="s">
         <v>62</v>
@@ -6684,39 +6675,39 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>19330051920023</v>
+        <v>19330051920040</v>
       </c>
       <c r="B139" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C139" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D139" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E139" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>19330051920023</v>
+        <v>19330051920040</v>
       </c>
       <c r="B140" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C140" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D140" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F140" t="s">
         <v>63</v>
@@ -6724,2182 +6715,42 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>19330051920026</v>
+        <v>19330051920040</v>
       </c>
       <c r="B141" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C141" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D141" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F141" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>19330051920026</v>
+        <v>19330051920040</v>
       </c>
       <c r="B142" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C142" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D142" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F142" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>19330051920026</v>
-      </c>
-      <c r="B143" t="s">
-        <v>86</v>
-      </c>
-      <c r="C143" t="s">
-        <v>117</v>
-      </c>
-      <c r="D143" t="s">
-        <v>147</v>
-      </c>
-      <c r="E143" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>19330051920026</v>
-      </c>
-      <c r="B144" t="s">
-        <v>86</v>
-      </c>
-      <c r="C144" t="s">
-        <v>117</v>
-      </c>
-      <c r="D144" t="s">
-        <v>147</v>
-      </c>
-      <c r="E144" t="s">
-        <v>4</v>
-      </c>
-      <c r="F144" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>19330051920026</v>
-      </c>
-      <c r="B145" t="s">
-        <v>86</v>
-      </c>
-      <c r="C145" t="s">
-        <v>117</v>
-      </c>
-      <c r="D145" t="s">
-        <v>147</v>
-      </c>
-      <c r="E145" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>19330051920026</v>
-      </c>
-      <c r="B146" t="s">
-        <v>86</v>
-      </c>
-      <c r="C146" t="s">
-        <v>117</v>
-      </c>
-      <c r="D146" t="s">
-        <v>147</v>
-      </c>
-      <c r="E146" t="s">
-        <v>5</v>
-      </c>
-      <c r="F146" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>19330051920026</v>
-      </c>
-      <c r="B147" t="s">
-        <v>86</v>
-      </c>
-      <c r="C147" t="s">
-        <v>117</v>
-      </c>
-      <c r="D147" t="s">
-        <v>147</v>
-      </c>
-      <c r="E147" t="s">
-        <v>6</v>
-      </c>
-      <c r="F147" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>18330061460390</v>
-      </c>
-      <c r="B148" t="s">
-        <v>87</v>
-      </c>
-      <c r="C148" t="s">
-        <v>118</v>
-      </c>
-      <c r="D148" t="s">
-        <v>148</v>
-      </c>
-      <c r="E148" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>18330061460390</v>
-      </c>
-      <c r="B149" t="s">
-        <v>87</v>
-      </c>
-      <c r="C149" t="s">
-        <v>118</v>
-      </c>
-      <c r="D149" t="s">
-        <v>148</v>
-      </c>
-      <c r="E149" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>18330061460390</v>
-      </c>
-      <c r="B150" t="s">
-        <v>87</v>
-      </c>
-      <c r="C150" t="s">
-        <v>118</v>
-      </c>
-      <c r="D150" t="s">
-        <v>148</v>
-      </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>18330061460390</v>
-      </c>
-      <c r="B151" t="s">
-        <v>87</v>
-      </c>
-      <c r="C151" t="s">
-        <v>118</v>
-      </c>
-      <c r="D151" t="s">
-        <v>148</v>
-      </c>
-      <c r="E151" t="s">
-        <v>4</v>
-      </c>
-      <c r="F151" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>18330061460390</v>
-      </c>
-      <c r="B152" t="s">
-        <v>87</v>
-      </c>
-      <c r="C152" t="s">
-        <v>118</v>
-      </c>
-      <c r="D152" t="s">
-        <v>148</v>
-      </c>
-      <c r="E152" t="s">
-        <v>8</v>
-      </c>
-      <c r="F152" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>18330061460390</v>
-      </c>
-      <c r="B153" t="s">
-        <v>87</v>
-      </c>
-      <c r="C153" t="s">
-        <v>118</v>
-      </c>
-      <c r="D153" t="s">
-        <v>148</v>
-      </c>
-      <c r="E153" t="s">
-        <v>6</v>
-      </c>
-      <c r="F153" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>18330061460390</v>
-      </c>
-      <c r="B154" t="s">
-        <v>87</v>
-      </c>
-      <c r="C154" t="s">
-        <v>118</v>
-      </c>
-      <c r="D154" t="s">
-        <v>148</v>
-      </c>
-      <c r="E154" t="s">
-        <v>5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920025</v>
-      </c>
-      <c r="B155" t="s">
-        <v>86</v>
-      </c>
-      <c r="C155" t="s">
-        <v>111</v>
-      </c>
-      <c r="D155" t="s">
-        <v>149</v>
-      </c>
-      <c r="E155" t="s">
-        <v>10</v>
-      </c>
-      <c r="F155" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920025</v>
-      </c>
-      <c r="B156" t="s">
-        <v>86</v>
-      </c>
-      <c r="C156" t="s">
-        <v>111</v>
-      </c>
-      <c r="D156" t="s">
-        <v>149</v>
-      </c>
-      <c r="E156" t="s">
-        <v>7</v>
-      </c>
-      <c r="F156" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920025</v>
-      </c>
-      <c r="B157" t="s">
-        <v>86</v>
-      </c>
-      <c r="C157" t="s">
-        <v>111</v>
-      </c>
-      <c r="D157" t="s">
-        <v>149</v>
-      </c>
-      <c r="E157" t="s">
-        <v>6</v>
-      </c>
-      <c r="F157" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>19330051920025</v>
-      </c>
-      <c r="B158" t="s">
-        <v>86</v>
-      </c>
-      <c r="C158" t="s">
-        <v>111</v>
-      </c>
-      <c r="D158" t="s">
-        <v>149</v>
-      </c>
-      <c r="E158" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>19330051920025</v>
-      </c>
-      <c r="B159" t="s">
-        <v>86</v>
-      </c>
-      <c r="C159" t="s">
-        <v>111</v>
-      </c>
-      <c r="D159" t="s">
-        <v>149</v>
-      </c>
-      <c r="E159" t="s">
-        <v>5</v>
-      </c>
-      <c r="F159" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>19330051920027</v>
-      </c>
-      <c r="B160" t="s">
-        <v>86</v>
-      </c>
-      <c r="C160" t="s">
-        <v>101</v>
-      </c>
-      <c r="D160" t="s">
-        <v>150</v>
-      </c>
-      <c r="E160" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>19330051920027</v>
-      </c>
-      <c r="B161" t="s">
-        <v>86</v>
-      </c>
-      <c r="C161" t="s">
-        <v>101</v>
-      </c>
-      <c r="D161" t="s">
-        <v>150</v>
-      </c>
-      <c r="E161" t="s">
-        <v>6</v>
-      </c>
-      <c r="F161" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>19330051920027</v>
-      </c>
-      <c r="B162" t="s">
-        <v>86</v>
-      </c>
-      <c r="C162" t="s">
-        <v>101</v>
-      </c>
-      <c r="D162" t="s">
-        <v>150</v>
-      </c>
-      <c r="E162" t="s">
-        <v>7</v>
-      </c>
-      <c r="F162" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>19330051920027</v>
-      </c>
-      <c r="B163" t="s">
-        <v>86</v>
-      </c>
-      <c r="C163" t="s">
-        <v>101</v>
-      </c>
-      <c r="D163" t="s">
-        <v>150</v>
-      </c>
-      <c r="E163" t="s">
-        <v>4</v>
-      </c>
-      <c r="F163" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>19330051920027</v>
-      </c>
-      <c r="B164" t="s">
-        <v>86</v>
-      </c>
-      <c r="C164" t="s">
-        <v>101</v>
-      </c>
-      <c r="D164" t="s">
-        <v>150</v>
-      </c>
-      <c r="E164" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>19330051920024</v>
-      </c>
-      <c r="B165" t="s">
-        <v>88</v>
-      </c>
-      <c r="C165" t="s">
-        <v>119</v>
-      </c>
-      <c r="D165" t="s">
-        <v>151</v>
-      </c>
-      <c r="E165" t="s">
-        <v>4</v>
-      </c>
-      <c r="F165" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>19330051920024</v>
-      </c>
-      <c r="B166" t="s">
-        <v>88</v>
-      </c>
-      <c r="C166" t="s">
-        <v>119</v>
-      </c>
-      <c r="D166" t="s">
-        <v>151</v>
-      </c>
-      <c r="E166" t="s">
-        <v>9</v>
-      </c>
-      <c r="F166" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>19330051920024</v>
-      </c>
-      <c r="B167" t="s">
-        <v>88</v>
-      </c>
-      <c r="C167" t="s">
-        <v>119</v>
-      </c>
-      <c r="D167" t="s">
-        <v>151</v>
-      </c>
-      <c r="E167" t="s">
-        <v>8</v>
-      </c>
-      <c r="F167" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>19330051920024</v>
-      </c>
-      <c r="B168" t="s">
-        <v>88</v>
-      </c>
-      <c r="C168" t="s">
-        <v>119</v>
-      </c>
-      <c r="D168" t="s">
-        <v>151</v>
-      </c>
-      <c r="E168" t="s">
-        <v>7</v>
-      </c>
-      <c r="F168" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>19330051920024</v>
-      </c>
-      <c r="B169" t="s">
-        <v>88</v>
-      </c>
-      <c r="C169" t="s">
-        <v>119</v>
-      </c>
-      <c r="D169" t="s">
-        <v>151</v>
-      </c>
-      <c r="E169" t="s">
-        <v>5</v>
-      </c>
-      <c r="F169" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>19330051920024</v>
-      </c>
-      <c r="B170" t="s">
-        <v>88</v>
-      </c>
-      <c r="C170" t="s">
-        <v>119</v>
-      </c>
-      <c r="D170" t="s">
-        <v>151</v>
-      </c>
-      <c r="E170" t="s">
-        <v>10</v>
-      </c>
-      <c r="F170" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>19330051920024</v>
-      </c>
-      <c r="B171" t="s">
-        <v>88</v>
-      </c>
-      <c r="C171" t="s">
-        <v>119</v>
-      </c>
-      <c r="D171" t="s">
-        <v>151</v>
-      </c>
-      <c r="E171" t="s">
-        <v>6</v>
-      </c>
-      <c r="F171" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>19330051920029</v>
-      </c>
-      <c r="B172" t="s">
-        <v>89</v>
-      </c>
-      <c r="C172" t="s">
-        <v>84</v>
-      </c>
-      <c r="D172" t="s">
-        <v>152</v>
-      </c>
-      <c r="E172" t="s">
-        <v>7</v>
-      </c>
-      <c r="F172" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>19330051920029</v>
-      </c>
-      <c r="B173" t="s">
-        <v>89</v>
-      </c>
-      <c r="C173" t="s">
-        <v>84</v>
-      </c>
-      <c r="D173" t="s">
-        <v>152</v>
-      </c>
-      <c r="E173" t="s">
-        <v>10</v>
-      </c>
-      <c r="F173" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>19330051920029</v>
-      </c>
-      <c r="B174" t="s">
-        <v>89</v>
-      </c>
-      <c r="C174" t="s">
-        <v>84</v>
-      </c>
-      <c r="D174" t="s">
-        <v>152</v>
-      </c>
-      <c r="E174" t="s">
-        <v>5</v>
-      </c>
-      <c r="F174" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>19330051920029</v>
-      </c>
-      <c r="B175" t="s">
-        <v>89</v>
-      </c>
-      <c r="C175" t="s">
-        <v>84</v>
-      </c>
-      <c r="D175" t="s">
-        <v>152</v>
-      </c>
-      <c r="E175" t="s">
-        <v>4</v>
-      </c>
-      <c r="F175" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>19330051920029</v>
-      </c>
-      <c r="B176" t="s">
-        <v>89</v>
-      </c>
-      <c r="C176" t="s">
-        <v>84</v>
-      </c>
-      <c r="D176" t="s">
-        <v>152</v>
-      </c>
-      <c r="E176" t="s">
-        <v>8</v>
-      </c>
-      <c r="F176" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>19330051920029</v>
-      </c>
-      <c r="B177" t="s">
-        <v>89</v>
-      </c>
-      <c r="C177" t="s">
-        <v>84</v>
-      </c>
-      <c r="D177" t="s">
-        <v>152</v>
-      </c>
-      <c r="E177" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>19330051920029</v>
-      </c>
-      <c r="B178" t="s">
-        <v>89</v>
-      </c>
-      <c r="C178" t="s">
-        <v>84</v>
-      </c>
-      <c r="D178" t="s">
-        <v>152</v>
-      </c>
-      <c r="E178" t="s">
-        <v>6</v>
-      </c>
-      <c r="F178" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>19330051920030</v>
-      </c>
-      <c r="B179" t="s">
-        <v>89</v>
-      </c>
-      <c r="C179" t="s">
-        <v>89</v>
-      </c>
-      <c r="D179" t="s">
-        <v>153</v>
-      </c>
-      <c r="E179" t="s">
-        <v>6</v>
-      </c>
-      <c r="F179" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>19330051920030</v>
-      </c>
-      <c r="B180" t="s">
-        <v>89</v>
-      </c>
-      <c r="C180" t="s">
-        <v>89</v>
-      </c>
-      <c r="D180" t="s">
-        <v>153</v>
-      </c>
-      <c r="E180" t="s">
-        <v>4</v>
-      </c>
-      <c r="F180" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>19330051920030</v>
-      </c>
-      <c r="B181" t="s">
-        <v>89</v>
-      </c>
-      <c r="C181" t="s">
-        <v>89</v>
-      </c>
-      <c r="D181" t="s">
-        <v>153</v>
-      </c>
-      <c r="E181" t="s">
-        <v>5</v>
-      </c>
-      <c r="F181" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>19330051920030</v>
-      </c>
-      <c r="B182" t="s">
-        <v>89</v>
-      </c>
-      <c r="C182" t="s">
-        <v>89</v>
-      </c>
-      <c r="D182" t="s">
-        <v>153</v>
-      </c>
-      <c r="E182" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>19330051920030</v>
-      </c>
-      <c r="B183" t="s">
-        <v>89</v>
-      </c>
-      <c r="C183" t="s">
-        <v>89</v>
-      </c>
-      <c r="D183" t="s">
-        <v>153</v>
-      </c>
-      <c r="E183" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>19330051920032</v>
-      </c>
-      <c r="B184" t="s">
-        <v>90</v>
-      </c>
-      <c r="C184" t="s">
-        <v>120</v>
-      </c>
-      <c r="D184" t="s">
-        <v>154</v>
-      </c>
-      <c r="E184" t="s">
-        <v>4</v>
-      </c>
-      <c r="F184" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>19330051920032</v>
-      </c>
-      <c r="B185" t="s">
-        <v>90</v>
-      </c>
-      <c r="C185" t="s">
-        <v>120</v>
-      </c>
-      <c r="D185" t="s">
-        <v>154</v>
-      </c>
-      <c r="E185" t="s">
-        <v>8</v>
-      </c>
-      <c r="F185" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>19330051920032</v>
-      </c>
-      <c r="B186" t="s">
-        <v>90</v>
-      </c>
-      <c r="C186" t="s">
-        <v>120</v>
-      </c>
-      <c r="D186" t="s">
-        <v>154</v>
-      </c>
-      <c r="E186" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>19330051920032</v>
-      </c>
-      <c r="B187" t="s">
-        <v>90</v>
-      </c>
-      <c r="C187" t="s">
-        <v>120</v>
-      </c>
-      <c r="D187" t="s">
-        <v>154</v>
-      </c>
-      <c r="E187" t="s">
-        <v>6</v>
-      </c>
-      <c r="F187" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>19330051920032</v>
-      </c>
-      <c r="B188" t="s">
-        <v>90</v>
-      </c>
-      <c r="C188" t="s">
-        <v>120</v>
-      </c>
-      <c r="D188" t="s">
-        <v>154</v>
-      </c>
-      <c r="E188" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>19330051920032</v>
-      </c>
-      <c r="B189" t="s">
-        <v>90</v>
-      </c>
-      <c r="C189" t="s">
-        <v>120</v>
-      </c>
-      <c r="D189" t="s">
-        <v>154</v>
-      </c>
-      <c r="E189" t="s">
-        <v>9</v>
-      </c>
-      <c r="F189" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>19330051920032</v>
-      </c>
-      <c r="B190" t="s">
-        <v>90</v>
-      </c>
-      <c r="C190" t="s">
-        <v>120</v>
-      </c>
-      <c r="D190" t="s">
-        <v>154</v>
-      </c>
-      <c r="E190" t="s">
-        <v>5</v>
-      </c>
-      <c r="F190" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>19330051920031</v>
-      </c>
-      <c r="B191" t="s">
-        <v>91</v>
-      </c>
-      <c r="C191" t="s">
-        <v>121</v>
-      </c>
-      <c r="D191" t="s">
-        <v>155</v>
-      </c>
-      <c r="E191" t="s">
-        <v>4</v>
-      </c>
-      <c r="F191" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>19330051920031</v>
-      </c>
-      <c r="B192" t="s">
-        <v>91</v>
-      </c>
-      <c r="C192" t="s">
-        <v>121</v>
-      </c>
-      <c r="D192" t="s">
-        <v>155</v>
-      </c>
-      <c r="E192" t="s">
-        <v>6</v>
-      </c>
-      <c r="F192" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>19330051920031</v>
-      </c>
-      <c r="B193" t="s">
-        <v>91</v>
-      </c>
-      <c r="C193" t="s">
-        <v>121</v>
-      </c>
-      <c r="D193" t="s">
-        <v>155</v>
-      </c>
-      <c r="E193" t="s">
-        <v>10</v>
-      </c>
-      <c r="F193" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>19330051920031</v>
-      </c>
-      <c r="B194" t="s">
-        <v>91</v>
-      </c>
-      <c r="C194" t="s">
-        <v>121</v>
-      </c>
-      <c r="D194" t="s">
-        <v>155</v>
-      </c>
-      <c r="E194" t="s">
-        <v>7</v>
-      </c>
-      <c r="F194" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>19330051920031</v>
-      </c>
-      <c r="B195" t="s">
-        <v>91</v>
-      </c>
-      <c r="C195" t="s">
-        <v>121</v>
-      </c>
-      <c r="D195" t="s">
-        <v>155</v>
-      </c>
-      <c r="E195" t="s">
-        <v>5</v>
-      </c>
-      <c r="F195" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>19330051920035</v>
-      </c>
-      <c r="B196" t="s">
-        <v>92</v>
-      </c>
-      <c r="C196" t="s">
-        <v>89</v>
-      </c>
-      <c r="D196" t="s">
-        <v>156</v>
-      </c>
-      <c r="E196" t="s">
-        <v>5</v>
-      </c>
-      <c r="F196" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>19330051920035</v>
-      </c>
-      <c r="B197" t="s">
-        <v>92</v>
-      </c>
-      <c r="C197" t="s">
-        <v>89</v>
-      </c>
-      <c r="D197" t="s">
-        <v>156</v>
-      </c>
-      <c r="E197" t="s">
-        <v>8</v>
-      </c>
-      <c r="F197" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>19330051920035</v>
-      </c>
-      <c r="B198" t="s">
-        <v>92</v>
-      </c>
-      <c r="C198" t="s">
-        <v>89</v>
-      </c>
-      <c r="D198" t="s">
-        <v>156</v>
-      </c>
-      <c r="E198" t="s">
-        <v>9</v>
-      </c>
-      <c r="F198" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>19330051920035</v>
-      </c>
-      <c r="B199" t="s">
-        <v>92</v>
-      </c>
-      <c r="C199" t="s">
-        <v>89</v>
-      </c>
-      <c r="D199" t="s">
-        <v>156</v>
-      </c>
-      <c r="E199" t="s">
-        <v>10</v>
-      </c>
-      <c r="F199" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>19330051920035</v>
-      </c>
-      <c r="B200" t="s">
-        <v>92</v>
-      </c>
-      <c r="C200" t="s">
-        <v>89</v>
-      </c>
-      <c r="D200" t="s">
-        <v>156</v>
-      </c>
-      <c r="E200" t="s">
-        <v>4</v>
-      </c>
-      <c r="F200" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>19330051920035</v>
-      </c>
-      <c r="B201" t="s">
-        <v>92</v>
-      </c>
-      <c r="C201" t="s">
-        <v>89</v>
-      </c>
-      <c r="D201" t="s">
-        <v>156</v>
-      </c>
-      <c r="E201" t="s">
-        <v>6</v>
-      </c>
-      <c r="F201" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>19330051920035</v>
-      </c>
-      <c r="B202" t="s">
-        <v>92</v>
-      </c>
-      <c r="C202" t="s">
-        <v>89</v>
-      </c>
-      <c r="D202" t="s">
-        <v>156</v>
-      </c>
-      <c r="E202" t="s">
-        <v>7</v>
-      </c>
-      <c r="F202" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>19330051920033</v>
-      </c>
-      <c r="B203" t="s">
-        <v>93</v>
-      </c>
-      <c r="C203" t="s">
-        <v>122</v>
-      </c>
-      <c r="D203" t="s">
-        <v>157</v>
-      </c>
-      <c r="E203" t="s">
-        <v>5</v>
-      </c>
-      <c r="F203" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>19330051920033</v>
-      </c>
-      <c r="B204" t="s">
-        <v>93</v>
-      </c>
-      <c r="C204" t="s">
-        <v>122</v>
-      </c>
-      <c r="D204" t="s">
-        <v>157</v>
-      </c>
-      <c r="E204" t="s">
-        <v>9</v>
-      </c>
-      <c r="F204" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>19330051920033</v>
-      </c>
-      <c r="B205" t="s">
-        <v>93</v>
-      </c>
-      <c r="C205" t="s">
-        <v>122</v>
-      </c>
-      <c r="D205" t="s">
-        <v>157</v>
-      </c>
-      <c r="E205" t="s">
-        <v>6</v>
-      </c>
-      <c r="F205" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>19330051920033</v>
-      </c>
-      <c r="B206" t="s">
-        <v>93</v>
-      </c>
-      <c r="C206" t="s">
-        <v>122</v>
-      </c>
-      <c r="D206" t="s">
-        <v>157</v>
-      </c>
-      <c r="E206" t="s">
-        <v>10</v>
-      </c>
-      <c r="F206" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>19330051920033</v>
-      </c>
-      <c r="B207" t="s">
-        <v>93</v>
-      </c>
-      <c r="C207" t="s">
-        <v>122</v>
-      </c>
-      <c r="D207" t="s">
-        <v>157</v>
-      </c>
-      <c r="E207" t="s">
-        <v>7</v>
-      </c>
-      <c r="F207" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>19330051920033</v>
-      </c>
-      <c r="B208" t="s">
-        <v>93</v>
-      </c>
-      <c r="C208" t="s">
-        <v>122</v>
-      </c>
-      <c r="D208" t="s">
-        <v>157</v>
-      </c>
-      <c r="E208" t="s">
-        <v>8</v>
-      </c>
-      <c r="F208" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>19330051920033</v>
-      </c>
-      <c r="B209" t="s">
-        <v>93</v>
-      </c>
-      <c r="C209" t="s">
-        <v>122</v>
-      </c>
-      <c r="D209" t="s">
-        <v>157</v>
-      </c>
-      <c r="E209" t="s">
-        <v>4</v>
-      </c>
-      <c r="F209" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>19330051920034</v>
-      </c>
-      <c r="B210" t="s">
-        <v>94</v>
-      </c>
-      <c r="C210" t="s">
-        <v>119</v>
-      </c>
-      <c r="D210" t="s">
-        <v>158</v>
-      </c>
-      <c r="E210" t="s">
-        <v>5</v>
-      </c>
-      <c r="F210" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>19330051920034</v>
-      </c>
-      <c r="B211" t="s">
-        <v>94</v>
-      </c>
-      <c r="C211" t="s">
-        <v>119</v>
-      </c>
-      <c r="D211" t="s">
-        <v>158</v>
-      </c>
-      <c r="E211" t="s">
-        <v>4</v>
-      </c>
-      <c r="F211" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212">
-        <v>19330051920034</v>
-      </c>
-      <c r="B212" t="s">
-        <v>94</v>
-      </c>
-      <c r="C212" t="s">
-        <v>119</v>
-      </c>
-      <c r="D212" t="s">
-        <v>158</v>
-      </c>
-      <c r="E212" t="s">
-        <v>6</v>
-      </c>
-      <c r="F212" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213">
-        <v>19330051920034</v>
-      </c>
-      <c r="B213" t="s">
-        <v>94</v>
-      </c>
-      <c r="C213" t="s">
-        <v>119</v>
-      </c>
-      <c r="D213" t="s">
-        <v>158</v>
-      </c>
-      <c r="E213" t="s">
-        <v>8</v>
-      </c>
-      <c r="F213" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214">
-        <v>19330051920034</v>
-      </c>
-      <c r="B214" t="s">
-        <v>94</v>
-      </c>
-      <c r="C214" t="s">
-        <v>119</v>
-      </c>
-      <c r="D214" t="s">
-        <v>158</v>
-      </c>
-      <c r="E214" t="s">
-        <v>7</v>
-      </c>
-      <c r="F214" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215">
-        <v>19330051920034</v>
-      </c>
-      <c r="B215" t="s">
-        <v>94</v>
-      </c>
-      <c r="C215" t="s">
-        <v>119</v>
-      </c>
-      <c r="D215" t="s">
-        <v>158</v>
-      </c>
-      <c r="E215" t="s">
-        <v>9</v>
-      </c>
-      <c r="F215" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216">
-        <v>19330051920034</v>
-      </c>
-      <c r="B216" t="s">
-        <v>94</v>
-      </c>
-      <c r="C216" t="s">
-        <v>119</v>
-      </c>
-      <c r="D216" t="s">
-        <v>158</v>
-      </c>
-      <c r="E216" t="s">
-        <v>10</v>
-      </c>
-      <c r="F216" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217">
-        <v>19330051920038</v>
-      </c>
-      <c r="B217" t="s">
-        <v>95</v>
-      </c>
-      <c r="C217" t="s">
-        <v>123</v>
-      </c>
-      <c r="D217" t="s">
-        <v>159</v>
-      </c>
-      <c r="E217" t="s">
-        <v>10</v>
-      </c>
-      <c r="F217" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218">
-        <v>19330051920038</v>
-      </c>
-      <c r="B218" t="s">
-        <v>95</v>
-      </c>
-      <c r="C218" t="s">
-        <v>123</v>
-      </c>
-      <c r="D218" t="s">
-        <v>159</v>
-      </c>
-      <c r="E218" t="s">
-        <v>7</v>
-      </c>
-      <c r="F218" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219">
-        <v>19330051920038</v>
-      </c>
-      <c r="B219" t="s">
-        <v>95</v>
-      </c>
-      <c r="C219" t="s">
-        <v>123</v>
-      </c>
-      <c r="D219" t="s">
-        <v>159</v>
-      </c>
-      <c r="E219" t="s">
-        <v>5</v>
-      </c>
-      <c r="F219" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220">
-        <v>19330051920038</v>
-      </c>
-      <c r="B220" t="s">
-        <v>95</v>
-      </c>
-      <c r="C220" t="s">
-        <v>123</v>
-      </c>
-      <c r="D220" t="s">
-        <v>159</v>
-      </c>
-      <c r="E220" t="s">
-        <v>6</v>
-      </c>
-      <c r="F220" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221">
-        <v>19330051920038</v>
-      </c>
-      <c r="B221" t="s">
-        <v>95</v>
-      </c>
-      <c r="C221" t="s">
-        <v>123</v>
-      </c>
-      <c r="D221" t="s">
-        <v>159</v>
-      </c>
-      <c r="E221" t="s">
-        <v>4</v>
-      </c>
-      <c r="F221" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222">
-        <v>19330051920037</v>
-      </c>
-      <c r="B222" t="s">
-        <v>96</v>
-      </c>
-      <c r="C222" t="s">
-        <v>124</v>
-      </c>
-      <c r="D222" t="s">
-        <v>160</v>
-      </c>
-      <c r="E222" t="s">
-        <v>5</v>
-      </c>
-      <c r="F222" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223">
-        <v>19330051920037</v>
-      </c>
-      <c r="B223" t="s">
-        <v>96</v>
-      </c>
-      <c r="C223" t="s">
-        <v>124</v>
-      </c>
-      <c r="D223" t="s">
-        <v>160</v>
-      </c>
-      <c r="E223" t="s">
-        <v>7</v>
-      </c>
-      <c r="F223" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224">
-        <v>19330051920037</v>
-      </c>
-      <c r="B224" t="s">
-        <v>96</v>
-      </c>
-      <c r="C224" t="s">
-        <v>124</v>
-      </c>
-      <c r="D224" t="s">
-        <v>160</v>
-      </c>
-      <c r="E224" t="s">
-        <v>10</v>
-      </c>
-      <c r="F224" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225">
-        <v>19330051920037</v>
-      </c>
-      <c r="B225" t="s">
-        <v>96</v>
-      </c>
-      <c r="C225" t="s">
-        <v>124</v>
-      </c>
-      <c r="D225" t="s">
-        <v>160</v>
-      </c>
-      <c r="E225" t="s">
-        <v>8</v>
-      </c>
-      <c r="F225" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226">
-        <v>19330051920037</v>
-      </c>
-      <c r="B226" t="s">
-        <v>96</v>
-      </c>
-      <c r="C226" t="s">
-        <v>124</v>
-      </c>
-      <c r="D226" t="s">
-        <v>160</v>
-      </c>
-      <c r="E226" t="s">
-        <v>4</v>
-      </c>
-      <c r="F226" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227">
-        <v>19330051920037</v>
-      </c>
-      <c r="B227" t="s">
-        <v>96</v>
-      </c>
-      <c r="C227" t="s">
-        <v>124</v>
-      </c>
-      <c r="D227" t="s">
-        <v>160</v>
-      </c>
-      <c r="E227" t="s">
-        <v>6</v>
-      </c>
-      <c r="F227" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228">
-        <v>19330051920037</v>
-      </c>
-      <c r="B228" t="s">
-        <v>96</v>
-      </c>
-      <c r="C228" t="s">
-        <v>124</v>
-      </c>
-      <c r="D228" t="s">
-        <v>160</v>
-      </c>
-      <c r="E228" t="s">
-        <v>9</v>
-      </c>
-      <c r="F228" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229">
-        <v>19330051920036</v>
-      </c>
-      <c r="B229" t="s">
-        <v>97</v>
-      </c>
-      <c r="C229" t="s">
-        <v>88</v>
-      </c>
-      <c r="D229" t="s">
-        <v>161</v>
-      </c>
-      <c r="E229" t="s">
-        <v>8</v>
-      </c>
-      <c r="F229" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230">
-        <v>19330051920036</v>
-      </c>
-      <c r="B230" t="s">
-        <v>97</v>
-      </c>
-      <c r="C230" t="s">
-        <v>88</v>
-      </c>
-      <c r="D230" t="s">
-        <v>161</v>
-      </c>
-      <c r="E230" t="s">
-        <v>7</v>
-      </c>
-      <c r="F230" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231">
-        <v>19330051920036</v>
-      </c>
-      <c r="B231" t="s">
-        <v>97</v>
-      </c>
-      <c r="C231" t="s">
-        <v>88</v>
-      </c>
-      <c r="D231" t="s">
-        <v>161</v>
-      </c>
-      <c r="E231" t="s">
-        <v>5</v>
-      </c>
-      <c r="F231" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232">
-        <v>19330051920036</v>
-      </c>
-      <c r="B232" t="s">
-        <v>97</v>
-      </c>
-      <c r="C232" t="s">
-        <v>88</v>
-      </c>
-      <c r="D232" t="s">
-        <v>161</v>
-      </c>
-      <c r="E232" t="s">
-        <v>10</v>
-      </c>
-      <c r="F232" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233">
-        <v>19330051920036</v>
-      </c>
-      <c r="B233" t="s">
-        <v>97</v>
-      </c>
-      <c r="C233" t="s">
-        <v>88</v>
-      </c>
-      <c r="D233" t="s">
-        <v>161</v>
-      </c>
-      <c r="E233" t="s">
-        <v>6</v>
-      </c>
-      <c r="F233" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234">
-        <v>19330051920036</v>
-      </c>
-      <c r="B234" t="s">
-        <v>97</v>
-      </c>
-      <c r="C234" t="s">
-        <v>88</v>
-      </c>
-      <c r="D234" t="s">
-        <v>161</v>
-      </c>
-      <c r="E234" t="s">
-        <v>4</v>
-      </c>
-      <c r="F234" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235">
-        <v>19330051920036</v>
-      </c>
-      <c r="B235" t="s">
-        <v>97</v>
-      </c>
-      <c r="C235" t="s">
-        <v>88</v>
-      </c>
-      <c r="D235" t="s">
-        <v>161</v>
-      </c>
-      <c r="E235" t="s">
-        <v>9</v>
-      </c>
-      <c r="F235" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236">
-        <v>19330051920039</v>
-      </c>
-      <c r="B236" t="s">
-        <v>98</v>
-      </c>
-      <c r="C236" t="s">
-        <v>125</v>
-      </c>
-      <c r="D236" t="s">
-        <v>162</v>
-      </c>
-      <c r="E236" t="s">
-        <v>5</v>
-      </c>
-      <c r="F236" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237">
-        <v>19330051920039</v>
-      </c>
-      <c r="B237" t="s">
-        <v>98</v>
-      </c>
-      <c r="C237" t="s">
-        <v>125</v>
-      </c>
-      <c r="D237" t="s">
-        <v>162</v>
-      </c>
-      <c r="E237" t="s">
-        <v>10</v>
-      </c>
-      <c r="F237" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238">
-        <v>19330051920039</v>
-      </c>
-      <c r="B238" t="s">
-        <v>98</v>
-      </c>
-      <c r="C238" t="s">
-        <v>125</v>
-      </c>
-      <c r="D238" t="s">
-        <v>162</v>
-      </c>
-      <c r="E238" t="s">
-        <v>8</v>
-      </c>
-      <c r="F238" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239">
-        <v>19330051920039</v>
-      </c>
-      <c r="B239" t="s">
-        <v>98</v>
-      </c>
-      <c r="C239" t="s">
-        <v>125</v>
-      </c>
-      <c r="D239" t="s">
-        <v>162</v>
-      </c>
-      <c r="E239" t="s">
-        <v>9</v>
-      </c>
-      <c r="F239" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240">
-        <v>19330051920039</v>
-      </c>
-      <c r="B240" t="s">
-        <v>98</v>
-      </c>
-      <c r="C240" t="s">
-        <v>125</v>
-      </c>
-      <c r="D240" t="s">
-        <v>162</v>
-      </c>
-      <c r="E240" t="s">
-        <v>7</v>
-      </c>
-      <c r="F240" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241">
-        <v>19330051920039</v>
-      </c>
-      <c r="B241" t="s">
-        <v>98</v>
-      </c>
-      <c r="C241" t="s">
-        <v>125</v>
-      </c>
-      <c r="D241" t="s">
-        <v>162</v>
-      </c>
-      <c r="E241" t="s">
-        <v>4</v>
-      </c>
-      <c r="F241" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242">
-        <v>19330051920039</v>
-      </c>
-      <c r="B242" t="s">
-        <v>98</v>
-      </c>
-      <c r="C242" t="s">
-        <v>125</v>
-      </c>
-      <c r="D242" t="s">
-        <v>162</v>
-      </c>
-      <c r="E242" t="s">
-        <v>6</v>
-      </c>
-      <c r="F242" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243">
-        <v>19330051920040</v>
-      </c>
-      <c r="B243" t="s">
-        <v>99</v>
-      </c>
-      <c r="C243" t="s">
-        <v>124</v>
-      </c>
-      <c r="D243" t="s">
-        <v>131</v>
-      </c>
-      <c r="E243" t="s">
-        <v>4</v>
-      </c>
-      <c r="F243" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244">
-        <v>19330051920040</v>
-      </c>
-      <c r="B244" t="s">
-        <v>99</v>
-      </c>
-      <c r="C244" t="s">
-        <v>124</v>
-      </c>
-      <c r="D244" t="s">
-        <v>131</v>
-      </c>
-      <c r="E244" t="s">
-        <v>9</v>
-      </c>
-      <c r="F244" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245">
-        <v>19330051920040</v>
-      </c>
-      <c r="B245" t="s">
-        <v>99</v>
-      </c>
-      <c r="C245" t="s">
-        <v>124</v>
-      </c>
-      <c r="D245" t="s">
-        <v>131</v>
-      </c>
-      <c r="E245" t="s">
-        <v>10</v>
-      </c>
-      <c r="F245" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246">
-        <v>19330051920040</v>
-      </c>
-      <c r="B246" t="s">
-        <v>99</v>
-      </c>
-      <c r="C246" t="s">
-        <v>124</v>
-      </c>
-      <c r="D246" t="s">
-        <v>131</v>
-      </c>
-      <c r="E246" t="s">
-        <v>8</v>
-      </c>
-      <c r="F246" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247">
-        <v>19330051920040</v>
-      </c>
-      <c r="B247" t="s">
-        <v>99</v>
-      </c>
-      <c r="C247" t="s">
-        <v>124</v>
-      </c>
-      <c r="D247" t="s">
-        <v>131</v>
-      </c>
-      <c r="E247" t="s">
-        <v>7</v>
-      </c>
-      <c r="F247" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248">
-        <v>19330051920040</v>
-      </c>
-      <c r="B248" t="s">
-        <v>99</v>
-      </c>
-      <c r="C248" t="s">
-        <v>124</v>
-      </c>
-      <c r="D248" t="s">
-        <v>131</v>
-      </c>
-      <c r="E248" t="s">
-        <v>6</v>
-      </c>
-      <c r="F248" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249">
-        <v>19330051920040</v>
-      </c>
-      <c r="B249" t="s">
-        <v>99</v>
-      </c>
-      <c r="C249" t="s">
-        <v>124</v>
-      </c>
-      <c r="D249" t="s">
-        <v>131</v>
-      </c>
-      <c r="E249" t="s">
-        <v>5</v>
-      </c>
-      <c r="F249" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -8938,665 +6789,665 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920039</v>
+        <v>19330051920011</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920417</v>
+        <v>19330051920010</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920014</v>
+        <v>19330051920422</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920016</v>
+        <v>19330051920003</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920010</v>
+        <v>19330051920417</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920026</v>
+        <v>19330051920007</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920032</v>
+        <v>19330051920014</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920033</v>
+        <v>19330051920016</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920036</v>
+        <v>19330051920012</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920003</v>
+        <v>18330051920168</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920007</v>
+        <v>19330051920022</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920012</v>
+        <v>19330051920026</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920011</v>
+        <v>18330061460390</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920168</v>
+        <v>19330051920024</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920422</v>
+        <v>19330051920032</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330061460390</v>
+        <v>19330051920035</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920024</v>
+        <v>19330051920033</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920035</v>
+        <v>19330051920038</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920034</v>
+        <v>19330051920037</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920038</v>
+        <v>19330051920039</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920037</v>
+        <v>19330051920040</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
         <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920040</v>
+        <v>19330051920005</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920005</v>
+        <v>19330051920004</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920004</v>
+        <v>19330051920006</v>
       </c>
       <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" t="s">
-        <v>128</v>
-      </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920006</v>
+        <v>19330051920008</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920008</v>
+        <v>19330051920015</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920015</v>
+        <v>19330051920009</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920009</v>
+        <v>19330051920017</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920017</v>
+        <v>19330051920018</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920018</v>
+        <v>19330051920020</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920020</v>
+        <v>19330051920021</v>
       </c>
       <c r="B32" t="s">
         <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920022</v>
+        <v>19330051920023</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920021</v>
+        <v>19330051920025</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920023</v>
+        <v>19330051920027</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920025</v>
+        <v>19330051920029</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920027</v>
+        <v>19330051920030</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920029</v>
+        <v>19330051920031</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19330051920030</v>
+        <v>19330051920034</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>19330051920031</v>
+        <v>19330051920036</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9636,7 +7487,7 @@
         <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4AEM - Estadisticos 2020.xlsx
+++ b/grupos/4AEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="163">
   <si>
     <t>Materia</t>
   </si>
@@ -200,24 +200,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Rodríguez Román Leticia</t>
+  </si>
+  <si>
+    <t>Avila Coronado Julieta</t>
+  </si>
+  <si>
+    <t>Rivera Cruz Ezequiel</t>
+  </si>
+  <si>
     <t>González Sánchez Rene Aurelio</t>
   </si>
   <si>
-    <t>Avila Coronado Julieta</t>
+    <t>Torres Sánchez José Luis</t>
   </si>
   <si>
     <t>Jimenez Nieto Enrique</t>
   </si>
   <si>
-    <t>Rodríguez Román Leticia</t>
-  </si>
-  <si>
-    <t>Rivera Cruz Ezequiel</t>
-  </si>
-  <si>
-    <t>Torres Sánchez José Luis</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -233,6 +233,180 @@
     <t>ALVAREZ</t>
   </si>
   <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>CARRASCO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TELLO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>VALDERRAMA</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>MORAN</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MENCIAS</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>FERNANDO DE JESUS</t>
+  </si>
+  <si>
+    <t>CRISTIAN ANTONIO</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>HAZIEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>YAIR ANTONIO</t>
+  </si>
+  <si>
+    <t>ESTEFANY SARAI</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
+    <t>ELIDETH</t>
+  </si>
+  <si>
+    <t>YAMIL ELIEL</t>
+  </si>
+  <si>
+    <t>JOCELYN BERENICE</t>
+  </si>
+  <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>ERICK ORLANDO</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
+    <t>EMILIO</t>
+  </si>
+  <si>
+    <t>ALAN EDUARDO</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
@@ -242,87 +416,24 @@
     <t>BALDEZ</t>
   </si>
   <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
-    <t>CARRASCO</t>
-  </si>
-  <si>
     <t>CLEMENTE</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
     <t>ELIZALDE</t>
   </si>
   <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>MORALES</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
     <t>RIOS</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SERRANO</t>
-  </si>
-  <si>
     <t>SEGURA</t>
   </si>
   <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TELLO</t>
-  </si>
-  <si>
     <t>TEPOLE</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>VALDERRAMA</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>MORAN</t>
-  </si>
-  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
@@ -332,181 +443,70 @@
     <t>IXTACUA</t>
   </si>
   <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
     <t>PALAGOT</t>
   </si>
   <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
     <t>BELTRAN</t>
   </si>
   <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
     <t>FLORES</t>
   </si>
   <si>
-    <t>SORIANO</t>
-  </si>
-  <si>
     <t>MELENDEZ</t>
   </si>
   <si>
     <t>ARELLANO</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
     <t>YEPEZ</t>
   </si>
   <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>MELLADO</t>
   </si>
   <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>MENCIAS</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
     <t>CARLOS ALBERTO</t>
   </si>
   <si>
     <t>ALEX SAUL</t>
   </si>
   <si>
-    <t>FERNANDO DE JESUS</t>
-  </si>
-  <si>
-    <t>CRISTIAN ANTONIO</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>JESSICA</t>
-  </si>
-  <si>
     <t>ALBERTO</t>
   </si>
   <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>HAZIEL</t>
-  </si>
-  <si>
     <t>GIOVANNA</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>SAUL ALEJANDRO</t>
   </si>
   <si>
     <t>LOGAN ZURIEL</t>
   </si>
   <si>
-    <t>YAIR ANTONIO</t>
-  </si>
-  <si>
-    <t>ESTEFANY SARAI</t>
-  </si>
-  <si>
     <t>HUGO</t>
   </si>
   <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
     <t>JAIR</t>
   </si>
   <si>
     <t>JOSE AUGUSTO</t>
   </si>
   <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>NATANAEL</t>
-  </si>
-  <si>
     <t>DIANA AMEYALLI</t>
   </si>
   <si>
     <t>ANUAR ANTONIO</t>
   </si>
   <si>
-    <t>ELIDETH</t>
-  </si>
-  <si>
     <t>GAEL</t>
   </si>
   <si>
     <t>ARLETH</t>
   </si>
   <si>
-    <t>YAMIL ELIEL</t>
-  </si>
-  <si>
     <t>JAHIR</t>
   </si>
   <si>
-    <t>JOCELYN BERENICE</t>
-  </si>
-  <si>
-    <t>RAUL</t>
-  </si>
-  <si>
     <t>JOHNNY</t>
-  </si>
-  <si>
-    <t>ERICK ORLANDO</t>
-  </si>
-  <si>
-    <t>MAURICIO</t>
-  </si>
-  <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
-    <t>ALAN EDUARDO</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1008,10 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M4">
         <v>7</v>
@@ -1020,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -1076,10 +1076,10 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M5">
         <v>7</v>
@@ -1088,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1144,10 +1144,10 @@
         <v>8</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1212,10 +1212,10 @@
         <v>10</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M7">
         <v>10</v>
@@ -1224,7 +1224,7 @@
         <v>10</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1271,7 +1271,7 @@
         <v>8</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -1283,7 +1283,7 @@
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1292,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1351,7 +1351,7 @@
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1360,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1416,10 +1416,10 @@
         <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M10">
         <v>10</v>
@@ -1428,7 +1428,7 @@
         <v>10</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1484,10 +1484,10 @@
         <v>6</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>8</v>
@@ -1496,7 +1496,7 @@
         <v>8</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1552,10 +1552,10 @@
         <v>-1</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M12">
         <v>8</v>
@@ -1564,7 +1564,7 @@
         <v>8</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1620,10 +1620,10 @@
         <v>10</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M13">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1679,7 +1679,7 @@
         <v>8</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1691,7 +1691,7 @@
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -1700,7 +1700,7 @@
         <v>7</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1747,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1756,10 +1756,10 @@
         <v>5</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <v>7</v>
@@ -1768,7 +1768,7 @@
         <v>7</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -1824,10 +1824,10 @@
         <v>10</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M16">
         <v>9</v>
@@ -1836,7 +1836,7 @@
         <v>9</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -1883,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1895,7 +1895,7 @@
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M17">
         <v>7</v>
@@ -1904,7 +1904,7 @@
         <v>7</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -1960,10 +1960,10 @@
         <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M18">
         <v>8</v>
@@ -1972,7 +1972,7 @@
         <v>8</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -2028,10 +2028,10 @@
         <v>10</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M19">
         <v>10</v>
@@ -2040,7 +2040,7 @@
         <v>10</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -2096,10 +2096,10 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -2108,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2167,7 +2167,7 @@
         <v>-1</v>
       </c>
       <c r="L21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M21">
         <v>7</v>
@@ -2176,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2232,10 +2232,10 @@
         <v>7</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M22">
         <v>9</v>
@@ -2244,7 +2244,7 @@
         <v>9</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2300,10 +2300,10 @@
         <v>-1</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M23">
         <v>7</v>
@@ -2312,7 +2312,7 @@
         <v>7</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2368,10 +2368,10 @@
         <v>9</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M24">
         <v>9</v>
@@ -2380,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2436,10 +2436,10 @@
         <v>8</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M25">
         <v>7</v>
@@ -2448,7 +2448,7 @@
         <v>7</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2504,10 +2504,10 @@
         <v>9</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M26">
         <v>8</v>
@@ -2516,7 +2516,7 @@
         <v>8</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -2575,7 +2575,7 @@
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M27">
         <v>8</v>
@@ -2584,7 +2584,7 @@
         <v>8</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2631,7 +2631,7 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -2643,7 +2643,7 @@
         <v>-1</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -2652,7 +2652,7 @@
         <v>7</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P28">
         <v>-1</v>
@@ -2708,10 +2708,10 @@
         <v>10</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M29">
         <v>10</v>
@@ -2720,7 +2720,7 @@
         <v>10</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2776,10 +2776,10 @@
         <v>10</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M30">
         <v>10</v>
@@ -2788,7 +2788,7 @@
         <v>10</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -2844,10 +2844,10 @@
         <v>8</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <v>7</v>
@@ -2856,7 +2856,7 @@
         <v>7</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -2912,10 +2912,10 @@
         <v>10</v>
       </c>
       <c r="K32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M32">
         <v>10</v>
@@ -2924,7 +2924,7 @@
         <v>10</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P32">
         <v>-1</v>
@@ -2980,10 +2980,10 @@
         <v>8</v>
       </c>
       <c r="K33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M33">
         <v>10</v>
@@ -2992,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="O33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P33">
         <v>-1</v>
@@ -3039,7 +3039,7 @@
         <v>8</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -3051,7 +3051,7 @@
         <v>-1</v>
       </c>
       <c r="L34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M34">
         <v>7</v>
@@ -3060,7 +3060,7 @@
         <v>7</v>
       </c>
       <c r="O34">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P34">
         <v>-1</v>
@@ -3107,7 +3107,7 @@
         <v>8</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -3119,7 +3119,7 @@
         <v>-1</v>
       </c>
       <c r="L35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M35">
         <v>7</v>
@@ -3128,7 +3128,7 @@
         <v>7</v>
       </c>
       <c r="O35">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P35">
         <v>-1</v>
@@ -3184,10 +3184,10 @@
         <v>9</v>
       </c>
       <c r="K36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M36">
         <v>8</v>
@@ -3196,7 +3196,7 @@
         <v>8</v>
       </c>
       <c r="O36">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P36">
         <v>-1</v>
@@ -3252,10 +3252,10 @@
         <v>10</v>
       </c>
       <c r="K37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M37">
         <v>9</v>
@@ -3264,7 +3264,7 @@
         <v>9</v>
       </c>
       <c r="O37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="P37">
         <v>-1</v>
@@ -3311,7 +3311,7 @@
         <v>8</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -3323,7 +3323,7 @@
         <v>-1</v>
       </c>
       <c r="L38">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M38">
         <v>7</v>
@@ -3332,7 +3332,7 @@
         <v>7</v>
       </c>
       <c r="O38">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P38">
         <v>-1</v>
@@ -3388,10 +3388,10 @@
         <v>8</v>
       </c>
       <c r="K39">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L39">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M39">
         <v>7</v>
@@ -3400,7 +3400,7 @@
         <v>7</v>
       </c>
       <c r="O39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P39">
         <v>-1</v>
@@ -3456,10 +3456,10 @@
         <v>8</v>
       </c>
       <c r="K40">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L40">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M40">
         <v>10</v>
@@ -3468,7 +3468,7 @@
         <v>10</v>
       </c>
       <c r="O40">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P40">
         <v>-1</v>
@@ -3515,7 +3515,7 @@
         <v>9</v>
       </c>
       <c r="H41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I41">
         <v>-1</v>
@@ -3524,10 +3524,10 @@
         <v>7</v>
       </c>
       <c r="K41">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M41">
         <v>7</v>
@@ -3536,7 +3536,7 @@
         <v>7</v>
       </c>
       <c r="O41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P41">
         <v>-1</v>
@@ -3592,10 +3592,10 @@
         <v>6</v>
       </c>
       <c r="K42">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L42">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M42">
         <v>8</v>
@@ -3604,7 +3604,7 @@
         <v>8</v>
       </c>
       <c r="O42">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="P42">
         <v>-1</v>
@@ -3683,7 +3683,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -3692,22 +3692,25 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>33.33</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>35.9</v>
+      </c>
+      <c r="H2">
+        <v>6.5</v>
       </c>
       <c r="I2">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>48.72</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3721,27 +3724,30 @@
         <v>39</v>
       </c>
       <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="G3">
+        <v>35.9</v>
+      </c>
+      <c r="H3">
+        <v>7.2</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>39</v>
-      </c>
-      <c r="F3">
+      <c r="J3">
         <v>0</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -3750,27 +3756,30 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G4">
-        <v>76.92</v>
+        <v>28.21</v>
+      </c>
+      <c r="H4">
+        <v>7.8</v>
       </c>
       <c r="I4">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -3779,30 +3788,30 @@
         <v>39</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>33.33</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="G5">
-        <v>35.9</v>
+        <v>28.21</v>
       </c>
       <c r="H5">
-        <v>6.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>48.72</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -3811,30 +3820,30 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>71.79000000000001</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>28.21</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>12.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -3855,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3869,7 +3878,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>39</v>
@@ -3903,7 +3912,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3941,13 +3950,13 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>60</v>
@@ -3955,139 +3964,139 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>19330051920003</v>
+        <v>19330051920417</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>19330051920003</v>
+        <v>19330051920417</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>19330051920003</v>
+        <v>19330051920007</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>19330051920005</v>
+        <v>19330051920007</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920005</v>
+        <v>19330051920014</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920005</v>
+        <v>19330051920016</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>19330051920004</v>
+        <v>19330051920016</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>60</v>
@@ -4095,139 +4104,139 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>19330051920004</v>
+        <v>19330051920012</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920004</v>
+        <v>19330051920011</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920006</v>
+        <v>19330051920011</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920006</v>
+        <v>19330051920010</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920006</v>
+        <v>19330051920010</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920417</v>
+        <v>19330051920010</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920417</v>
+        <v>18330051920168</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>60</v>
@@ -4235,59 +4244,59 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920417</v>
+        <v>19330051920422</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920417</v>
+        <v>19330051920422</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920007</v>
+        <v>19330051920422</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>62</v>
@@ -4295,199 +4304,199 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920007</v>
+        <v>19330051920022</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920007</v>
+        <v>19330051920026</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920007</v>
+        <v>19330051920026</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920008</v>
+        <v>18330061460390</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920008</v>
+        <v>18330061460390</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920008</v>
+        <v>19330051920024</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920014</v>
+        <v>19330051920032</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920014</v>
+        <v>19330051920032</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920014</v>
+        <v>19330051920035</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920014</v>
+        <v>19330051920033</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>63</v>
@@ -4495,19 +4504,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920016</v>
+        <v>19330051920033</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
         <v>60</v>
@@ -4515,59 +4524,59 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920016</v>
+        <v>19330051920038</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920016</v>
+        <v>19330051920037</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920016</v>
+        <v>19330051920036</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
         <v>63</v>
@@ -4575,2181 +4584,41 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920015</v>
+        <v>19330051920039</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920015</v>
+        <v>19330051920040</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>19330051920015</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>19330051920012</v>
-      </c>
-      <c r="B37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>19330051920012</v>
-      </c>
-      <c r="B38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>19330051920012</v>
-      </c>
-      <c r="B39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>19330051920012</v>
-      </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>19330051920011</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D41" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>19330051920011</v>
-      </c>
-      <c r="B42" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>19330051920011</v>
-      </c>
-      <c r="B43" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>19330051920011</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>19330051920011</v>
-      </c>
-      <c r="B45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>19330051920009</v>
-      </c>
-      <c r="B46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C46" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>19330051920009</v>
-      </c>
-      <c r="B47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" t="s">
-        <v>111</v>
-      </c>
-      <c r="D47" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>19330051920009</v>
-      </c>
-      <c r="B48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>19330051920010</v>
-      </c>
-      <c r="B49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>19330051920010</v>
-      </c>
-      <c r="B50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" t="s">
-        <v>138</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>19330051920010</v>
-      </c>
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>19330051920010</v>
-      </c>
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>19330051920010</v>
-      </c>
-      <c r="B53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>19330051920017</v>
-      </c>
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>19330051920017</v>
-      </c>
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>19330051920017</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>19330051920018</v>
-      </c>
-      <c r="B57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>19330051920018</v>
-      </c>
-      <c r="B58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>19330051920018</v>
-      </c>
-      <c r="B59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" t="s">
-        <v>7</v>
-      </c>
-      <c r="F59" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>18330051920168</v>
-      </c>
-      <c r="B60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>18330051920168</v>
-      </c>
-      <c r="B61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920168</v>
-      </c>
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920168</v>
-      </c>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" t="s">
-        <v>141</v>
-      </c>
-      <c r="E63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>19330051920422</v>
-      </c>
-      <c r="B64" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" t="s">
-        <v>81</v>
-      </c>
-      <c r="D64" t="s">
-        <v>142</v>
-      </c>
-      <c r="E64" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>19330051920422</v>
-      </c>
-      <c r="B65" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" t="s">
-        <v>81</v>
-      </c>
-      <c r="D65" t="s">
-        <v>142</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>19330051920422</v>
-      </c>
-      <c r="B66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" t="s">
-        <v>81</v>
-      </c>
-      <c r="D66" t="s">
-        <v>142</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>19330051920422</v>
-      </c>
-      <c r="B67" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" t="s">
-        <v>142</v>
-      </c>
-      <c r="E67" t="s">
-        <v>7</v>
-      </c>
-      <c r="F67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>19330051920422</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
-      </c>
-      <c r="C68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" t="s">
-        <v>142</v>
-      </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>19330051920020</v>
-      </c>
-      <c r="B69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C69" t="s">
-        <v>89</v>
-      </c>
-      <c r="D69" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>19330051920020</v>
-      </c>
-      <c r="B70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C70" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70" t="s">
-        <v>143</v>
-      </c>
-      <c r="E70" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>19330051920020</v>
-      </c>
-      <c r="B71" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" t="s">
-        <v>89</v>
-      </c>
-      <c r="D71" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>19330051920022</v>
-      </c>
-      <c r="B72" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" t="s">
-        <v>144</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>19330051920022</v>
-      </c>
-      <c r="B73" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" t="s">
-        <v>115</v>
-      </c>
-      <c r="D73" t="s">
-        <v>144</v>
-      </c>
-      <c r="E73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>19330051920022</v>
-      </c>
-      <c r="B74" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" t="s">
-        <v>115</v>
-      </c>
-      <c r="D74" t="s">
-        <v>144</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>19330051920022</v>
-      </c>
-      <c r="B75" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" t="s">
-        <v>115</v>
-      </c>
-      <c r="D75" t="s">
-        <v>144</v>
-      </c>
-      <c r="E75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>19330051920021</v>
-      </c>
-      <c r="B76" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" t="s">
-        <v>116</v>
-      </c>
-      <c r="D76" t="s">
-        <v>145</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>19330051920021</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" t="s">
-        <v>145</v>
-      </c>
-      <c r="E77" t="s">
-        <v>7</v>
-      </c>
-      <c r="F77" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>19330051920021</v>
-      </c>
-      <c r="B78" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" t="s">
-        <v>116</v>
-      </c>
-      <c r="D78" t="s">
-        <v>145</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>19330051920023</v>
-      </c>
-      <c r="B79" t="s">
-        <v>85</v>
-      </c>
-      <c r="C79" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" t="s">
-        <v>146</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>19330051920023</v>
-      </c>
-      <c r="B80" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" t="s">
-        <v>146</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>19330051920023</v>
-      </c>
-      <c r="B81" t="s">
-        <v>85</v>
-      </c>
-      <c r="C81" t="s">
-        <v>117</v>
-      </c>
-      <c r="D81" t="s">
-        <v>146</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>19330051920026</v>
-      </c>
-      <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>117</v>
-      </c>
-      <c r="D82" t="s">
-        <v>147</v>
-      </c>
-      <c r="E82" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>19330051920026</v>
-      </c>
-      <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" t="s">
-        <v>147</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>19330051920026</v>
-      </c>
-      <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" t="s">
-        <v>147</v>
-      </c>
-      <c r="E84" t="s">
-        <v>4</v>
-      </c>
-      <c r="F84" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>19330051920026</v>
-      </c>
-      <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>117</v>
-      </c>
-      <c r="D85" t="s">
-        <v>147</v>
-      </c>
-      <c r="E85" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>18330061460390</v>
-      </c>
-      <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86" t="s">
-        <v>118</v>
-      </c>
-      <c r="D86" t="s">
-        <v>148</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>18330061460390</v>
-      </c>
-      <c r="B87" t="s">
-        <v>87</v>
-      </c>
-      <c r="C87" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" t="s">
-        <v>148</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>18330061460390</v>
-      </c>
-      <c r="B88" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" t="s">
-        <v>118</v>
-      </c>
-      <c r="D88" t="s">
-        <v>148</v>
-      </c>
-      <c r="E88" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>18330061460390</v>
-      </c>
-      <c r="B89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" t="s">
-        <v>118</v>
-      </c>
-      <c r="D89" t="s">
-        <v>148</v>
-      </c>
-      <c r="E89" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>19330051920025</v>
-      </c>
-      <c r="B90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C90" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" t="s">
-        <v>149</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>19330051920025</v>
-      </c>
-      <c r="B91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" t="s">
-        <v>111</v>
-      </c>
-      <c r="D91" t="s">
-        <v>149</v>
-      </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>19330051920025</v>
-      </c>
-      <c r="B92" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" t="s">
-        <v>111</v>
-      </c>
-      <c r="D92" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>19330051920027</v>
-      </c>
-      <c r="B93" t="s">
-        <v>86</v>
-      </c>
-      <c r="C93" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" t="s">
-        <v>150</v>
-      </c>
-      <c r="E93" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>19330051920027</v>
-      </c>
-      <c r="B94" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" t="s">
-        <v>150</v>
-      </c>
-      <c r="E94" t="s">
-        <v>7</v>
-      </c>
-      <c r="F94" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>19330051920027</v>
-      </c>
-      <c r="B95" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" t="s">
-        <v>101</v>
-      </c>
-      <c r="D95" t="s">
-        <v>150</v>
-      </c>
-      <c r="E95" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>19330051920024</v>
-      </c>
-      <c r="B96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" t="s">
-        <v>151</v>
-      </c>
-      <c r="E96" t="s">
-        <v>7</v>
-      </c>
-      <c r="F96" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>19330051920024</v>
-      </c>
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" t="s">
-        <v>119</v>
-      </c>
-      <c r="D97" t="s">
-        <v>151</v>
-      </c>
-      <c r="E97" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>19330051920024</v>
-      </c>
-      <c r="B98" t="s">
-        <v>88</v>
-      </c>
-      <c r="C98" t="s">
-        <v>119</v>
-      </c>
-      <c r="D98" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>19330051920024</v>
-      </c>
-      <c r="B99" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" t="s">
-        <v>119</v>
-      </c>
-      <c r="D99" t="s">
-        <v>151</v>
-      </c>
-      <c r="E99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>19330051920029</v>
-      </c>
-      <c r="B100" t="s">
-        <v>89</v>
-      </c>
-      <c r="C100" t="s">
-        <v>84</v>
-      </c>
-      <c r="D100" t="s">
-        <v>152</v>
-      </c>
-      <c r="E100" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920029</v>
-      </c>
-      <c r="B101" t="s">
-        <v>89</v>
-      </c>
-      <c r="C101" t="s">
-        <v>84</v>
-      </c>
-      <c r="D101" t="s">
-        <v>152</v>
-      </c>
-      <c r="E101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F101" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920029</v>
-      </c>
-      <c r="B102" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" t="s">
-        <v>84</v>
-      </c>
-      <c r="D102" t="s">
-        <v>152</v>
-      </c>
-      <c r="E102" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920030</v>
-      </c>
-      <c r="B103" t="s">
-        <v>89</v>
-      </c>
-      <c r="C103" t="s">
-        <v>89</v>
-      </c>
-      <c r="D103" t="s">
-        <v>153</v>
-      </c>
-      <c r="E103" t="s">
-        <v>10</v>
-      </c>
-      <c r="F103" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920030</v>
-      </c>
-      <c r="B104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C104" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" t="s">
-        <v>153</v>
-      </c>
-      <c r="E104" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920030</v>
-      </c>
-      <c r="B105" t="s">
-        <v>89</v>
-      </c>
-      <c r="C105" t="s">
-        <v>89</v>
-      </c>
-      <c r="D105" t="s">
-        <v>153</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920032</v>
-      </c>
-      <c r="B106" t="s">
-        <v>90</v>
-      </c>
-      <c r="C106" t="s">
-        <v>120</v>
-      </c>
-      <c r="D106" t="s">
-        <v>154</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920032</v>
-      </c>
-      <c r="B107" t="s">
-        <v>90</v>
-      </c>
-      <c r="C107" t="s">
-        <v>120</v>
-      </c>
-      <c r="D107" t="s">
-        <v>154</v>
-      </c>
-      <c r="E107" t="s">
-        <v>4</v>
-      </c>
-      <c r="F107" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920032</v>
-      </c>
-      <c r="B108" t="s">
-        <v>90</v>
-      </c>
-      <c r="C108" t="s">
-        <v>120</v>
-      </c>
-      <c r="D108" t="s">
-        <v>154</v>
-      </c>
-      <c r="E108" t="s">
-        <v>10</v>
-      </c>
-      <c r="F108" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920032</v>
-      </c>
-      <c r="B109" t="s">
-        <v>90</v>
-      </c>
-      <c r="C109" t="s">
-        <v>120</v>
-      </c>
-      <c r="D109" t="s">
-        <v>154</v>
-      </c>
-      <c r="E109" t="s">
-        <v>6</v>
-      </c>
-      <c r="F109" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920031</v>
-      </c>
-      <c r="B110" t="s">
-        <v>91</v>
-      </c>
-      <c r="C110" t="s">
-        <v>121</v>
-      </c>
-      <c r="D110" t="s">
-        <v>155</v>
-      </c>
-      <c r="E110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920031</v>
-      </c>
-      <c r="B111" t="s">
-        <v>91</v>
-      </c>
-      <c r="C111" t="s">
-        <v>121</v>
-      </c>
-      <c r="D111" t="s">
-        <v>155</v>
-      </c>
-      <c r="E111" t="s">
-        <v>6</v>
-      </c>
-      <c r="F111" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>19330051920031</v>
-      </c>
-      <c r="B112" t="s">
-        <v>91</v>
-      </c>
-      <c r="C112" t="s">
-        <v>121</v>
-      </c>
-      <c r="D112" t="s">
-        <v>155</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>19330051920035</v>
-      </c>
-      <c r="B113" t="s">
-        <v>92</v>
-      </c>
-      <c r="C113" t="s">
-        <v>89</v>
-      </c>
-      <c r="D113" t="s">
-        <v>156</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>19330051920035</v>
-      </c>
-      <c r="B114" t="s">
-        <v>92</v>
-      </c>
-      <c r="C114" t="s">
-        <v>89</v>
-      </c>
-      <c r="D114" t="s">
-        <v>156</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>19330051920035</v>
-      </c>
-      <c r="B115" t="s">
-        <v>92</v>
-      </c>
-      <c r="C115" t="s">
-        <v>89</v>
-      </c>
-      <c r="D115" t="s">
-        <v>156</v>
-      </c>
-      <c r="E115" t="s">
-        <v>4</v>
-      </c>
-      <c r="F115" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>19330051920035</v>
-      </c>
-      <c r="B116" t="s">
-        <v>92</v>
-      </c>
-      <c r="C116" t="s">
-        <v>89</v>
-      </c>
-      <c r="D116" t="s">
-        <v>156</v>
-      </c>
-      <c r="E116" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>19330051920033</v>
-      </c>
-      <c r="B117" t="s">
-        <v>93</v>
-      </c>
-      <c r="C117" t="s">
-        <v>122</v>
-      </c>
-      <c r="D117" t="s">
-        <v>157</v>
-      </c>
-      <c r="E117" t="s">
-        <v>6</v>
-      </c>
-      <c r="F117" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>19330051920033</v>
-      </c>
-      <c r="B118" t="s">
-        <v>93</v>
-      </c>
-      <c r="C118" t="s">
-        <v>122</v>
-      </c>
-      <c r="D118" t="s">
-        <v>157</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920033</v>
-      </c>
-      <c r="B119" t="s">
-        <v>93</v>
-      </c>
-      <c r="C119" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" t="s">
-        <v>157</v>
-      </c>
-      <c r="E119" t="s">
-        <v>10</v>
-      </c>
-      <c r="F119" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920033</v>
-      </c>
-      <c r="B120" t="s">
-        <v>93</v>
-      </c>
-      <c r="C120" t="s">
-        <v>122</v>
-      </c>
-      <c r="D120" t="s">
-        <v>157</v>
-      </c>
-      <c r="E120" t="s">
-        <v>4</v>
-      </c>
-      <c r="F120" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920034</v>
-      </c>
-      <c r="B121" t="s">
-        <v>94</v>
-      </c>
-      <c r="C121" t="s">
-        <v>119</v>
-      </c>
-      <c r="D121" t="s">
-        <v>158</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920034</v>
-      </c>
-      <c r="B122" t="s">
-        <v>94</v>
-      </c>
-      <c r="C122" t="s">
-        <v>119</v>
-      </c>
-      <c r="D122" t="s">
-        <v>158</v>
-      </c>
-      <c r="E122" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920034</v>
-      </c>
-      <c r="B123" t="s">
-        <v>94</v>
-      </c>
-      <c r="C123" t="s">
-        <v>119</v>
-      </c>
-      <c r="D123" t="s">
-        <v>158</v>
-      </c>
-      <c r="E123" t="s">
-        <v>6</v>
-      </c>
-      <c r="F123" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920038</v>
-      </c>
-      <c r="B124" t="s">
-        <v>95</v>
-      </c>
-      <c r="C124" t="s">
-        <v>123</v>
-      </c>
-      <c r="D124" t="s">
-        <v>159</v>
-      </c>
-      <c r="E124" t="s">
-        <v>6</v>
-      </c>
-      <c r="F124" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920038</v>
-      </c>
-      <c r="B125" t="s">
-        <v>95</v>
-      </c>
-      <c r="C125" t="s">
-        <v>123</v>
-      </c>
-      <c r="D125" t="s">
-        <v>159</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920038</v>
-      </c>
-      <c r="B126" t="s">
-        <v>95</v>
-      </c>
-      <c r="C126" t="s">
-        <v>123</v>
-      </c>
-      <c r="D126" t="s">
-        <v>159</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920038</v>
-      </c>
-      <c r="B127" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" t="s">
-        <v>123</v>
-      </c>
-      <c r="D127" t="s">
-        <v>159</v>
-      </c>
-      <c r="E127" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920037</v>
-      </c>
-      <c r="B128" t="s">
-        <v>96</v>
-      </c>
-      <c r="C128" t="s">
-        <v>124</v>
-      </c>
-      <c r="D128" t="s">
-        <v>160</v>
-      </c>
-      <c r="E128" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920037</v>
-      </c>
-      <c r="B129" t="s">
-        <v>96</v>
-      </c>
-      <c r="C129" t="s">
-        <v>124</v>
-      </c>
-      <c r="D129" t="s">
-        <v>160</v>
-      </c>
-      <c r="E129" t="s">
-        <v>4</v>
-      </c>
-      <c r="F129" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920037</v>
-      </c>
-      <c r="B130" t="s">
-        <v>96</v>
-      </c>
-      <c r="C130" t="s">
-        <v>124</v>
-      </c>
-      <c r="D130" t="s">
-        <v>160</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920037</v>
-      </c>
-      <c r="B131" t="s">
-        <v>96</v>
-      </c>
-      <c r="C131" t="s">
-        <v>124</v>
-      </c>
-      <c r="D131" t="s">
-        <v>160</v>
-      </c>
-      <c r="E131" t="s">
-        <v>6</v>
-      </c>
-      <c r="F131" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920036</v>
-      </c>
-      <c r="B132" t="s">
-        <v>97</v>
-      </c>
-      <c r="C132" t="s">
-        <v>88</v>
-      </c>
-      <c r="D132" t="s">
-        <v>161</v>
-      </c>
-      <c r="E132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F132" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920036</v>
-      </c>
-      <c r="B133" t="s">
-        <v>97</v>
-      </c>
-      <c r="C133" t="s">
-        <v>88</v>
-      </c>
-      <c r="D133" t="s">
-        <v>161</v>
-      </c>
-      <c r="E133" t="s">
-        <v>7</v>
-      </c>
-      <c r="F133" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920036</v>
-      </c>
-      <c r="B134" t="s">
-        <v>97</v>
-      </c>
-      <c r="C134" t="s">
-        <v>88</v>
-      </c>
-      <c r="D134" t="s">
-        <v>161</v>
-      </c>
-      <c r="E134" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920039</v>
-      </c>
-      <c r="B135" t="s">
-        <v>98</v>
-      </c>
-      <c r="C135" t="s">
-        <v>125</v>
-      </c>
-      <c r="D135" t="s">
-        <v>162</v>
-      </c>
-      <c r="E135" t="s">
-        <v>4</v>
-      </c>
-      <c r="F135" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920039</v>
-      </c>
-      <c r="B136" t="s">
-        <v>98</v>
-      </c>
-      <c r="C136" t="s">
-        <v>125</v>
-      </c>
-      <c r="D136" t="s">
-        <v>162</v>
-      </c>
-      <c r="E136" t="s">
-        <v>7</v>
-      </c>
-      <c r="F136" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920039</v>
-      </c>
-      <c r="B137" t="s">
-        <v>98</v>
-      </c>
-      <c r="C137" t="s">
-        <v>125</v>
-      </c>
-      <c r="D137" t="s">
-        <v>162</v>
-      </c>
-      <c r="E137" t="s">
-        <v>6</v>
-      </c>
-      <c r="F137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920039</v>
-      </c>
-      <c r="B138" t="s">
-        <v>98</v>
-      </c>
-      <c r="C138" t="s">
-        <v>125</v>
-      </c>
-      <c r="D138" t="s">
-        <v>162</v>
-      </c>
-      <c r="E138" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920040</v>
-      </c>
-      <c r="B139" t="s">
-        <v>99</v>
-      </c>
-      <c r="C139" t="s">
-        <v>124</v>
-      </c>
-      <c r="D139" t="s">
-        <v>131</v>
-      </c>
-      <c r="E139" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920040</v>
-      </c>
-      <c r="B140" t="s">
-        <v>99</v>
-      </c>
-      <c r="C140" t="s">
-        <v>124</v>
-      </c>
-      <c r="D140" t="s">
-        <v>131</v>
-      </c>
-      <c r="E140" t="s">
-        <v>4</v>
-      </c>
-      <c r="F140" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920040</v>
-      </c>
-      <c r="B141" t="s">
-        <v>99</v>
-      </c>
-      <c r="C141" t="s">
-        <v>124</v>
-      </c>
-      <c r="D141" t="s">
-        <v>131</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>19330051920040</v>
-      </c>
-      <c r="B142" t="s">
-        <v>99</v>
-      </c>
-      <c r="C142" t="s">
-        <v>124</v>
-      </c>
-      <c r="D142" t="s">
-        <v>131</v>
-      </c>
-      <c r="E142" t="s">
-        <v>6</v>
-      </c>
-      <c r="F142" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6789,291 +4658,291 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>19330051920011</v>
+        <v>19330051920010</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>19330051920010</v>
+        <v>19330051920422</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>19330051920422</v>
+        <v>19330051920417</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>19330051920003</v>
+        <v>19330051920007</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920417</v>
+        <v>19330051920016</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920007</v>
+        <v>19330051920011</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920014</v>
+        <v>19330051920026</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920016</v>
+        <v>18330061460390</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920012</v>
+        <v>19330051920032</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920168</v>
+        <v>19330051920033</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920022</v>
+        <v>19330051920003</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920026</v>
+        <v>19330051920014</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330061460390</v>
+        <v>19330051920012</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920024</v>
+        <v>18330051920168</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920032</v>
+        <v>19330051920022</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920035</v>
+        <v>19330051920024</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920033</v>
+        <v>19330051920035</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
         <v>122</v>
       </c>
-      <c r="D18" t="s">
-        <v>157</v>
-      </c>
       <c r="E18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7081,16 +4950,16 @@
         <v>19330051920038</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7098,356 +4967,356 @@
         <v>19330051920037</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920039</v>
+        <v>19330051920036</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920040</v>
+        <v>19330051920039</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920005</v>
+        <v>19330051920040</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920004</v>
+        <v>19330051920005</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920006</v>
+        <v>19330051920004</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920008</v>
+        <v>19330051920006</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920015</v>
+        <v>19330051920008</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920009</v>
+        <v>19330051920015</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920017</v>
+        <v>19330051920009</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920018</v>
+        <v>19330051920017</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920020</v>
+        <v>19330051920018</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920021</v>
+        <v>19330051920020</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920023</v>
+        <v>19330051920021</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920025</v>
+        <v>19330051920023</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920027</v>
+        <v>19330051920025</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920029</v>
+        <v>19330051920027</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D36" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920030</v>
+        <v>19330051920029</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D37" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920031</v>
+        <v>19330051920030</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19330051920034</v>
+        <v>19330051920031</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>19330051920036</v>
+        <v>19330051920034</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7457,7 +5326,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7490,6 +5359,466 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920011</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920011</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330061460390</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330061460390</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920024</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920024</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920039</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920039</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920021</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920029</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920035</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920034</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920038</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920037</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920040</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/4AEM - Estadisticos 2020.xlsx
+++ b/grupos/4AEM - Estadisticos 2020.xlsx
@@ -3976,10 +3976,10 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3996,10 +3996,10 @@
         <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:6">

--- a/grupos/4AEM - Estadisticos 2020.xlsx
+++ b/grupos/4AEM - Estadisticos 2020.xlsx
@@ -4256,10 +4256,10 @@
         <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4296,10 +4296,10 @@
         <v>116</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">

--- a/grupos/4AEM - Estadisticos 2020.xlsx
+++ b/grupos/4AEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="163">
   <si>
     <t>Materia</t>
   </si>
@@ -266,244 +266,244 @@
     <t>SERRANO</t>
   </si>
   <si>
+    <t>TELLO</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>VALDERRAMA</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>MORAN</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MENCIAS</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>FERNANDO DE JESUS</t>
+  </si>
+  <si>
+    <t>CRISTIAN ANTONIO</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>HAZIEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>YAIR ANTONIO</t>
+  </si>
+  <si>
+    <t>ESTEFANY SARAI</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
+    <t>ELIDETH</t>
+  </si>
+  <si>
+    <t>YAMIL ELIEL</t>
+  </si>
+  <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>ERICK ORLANDO</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
+    <t>EMILIO</t>
+  </si>
+  <si>
+    <t>ALAN EDUARDO</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>BALDEZ</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>ELIZALDE</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
     <t>TZANAHUA</t>
   </si>
   <si>
-    <t>TELLO</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>VALDERRAMA</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>MORAN</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>SORIANO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>MENCIAS</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>FERNANDO DE JESUS</t>
-  </si>
-  <si>
-    <t>CRISTIAN ANTONIO</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>JESSICA</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>HAZIEL</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>YAIR ANTONIO</t>
-  </si>
-  <si>
-    <t>ESTEFANY SARAI</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>NATANAEL</t>
-  </si>
-  <si>
-    <t>ELIDETH</t>
-  </si>
-  <si>
-    <t>YAMIL ELIEL</t>
+    <t>TEPOLE</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>IXTACUA</t>
+  </si>
+  <si>
+    <t>PALAGOT</t>
+  </si>
+  <si>
+    <t>BELTRAN</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>MELENDEZ</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>YEPEZ</t>
+  </si>
+  <si>
+    <t>MELLADO</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>ALEX SAUL</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>GIOVANNA</t>
+  </si>
+  <si>
+    <t>SAUL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>LOGAN ZURIEL</t>
+  </si>
+  <si>
+    <t>HUGO</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO</t>
+  </si>
+  <si>
+    <t>DIANA AMEYALLI</t>
+  </si>
+  <si>
+    <t>ANUAR ANTONIO</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>ARLETH</t>
+  </si>
+  <si>
+    <t>JAHIR</t>
   </si>
   <si>
     <t>JOCELYN BERENICE</t>
-  </si>
-  <si>
-    <t>RAUL</t>
-  </si>
-  <si>
-    <t>ERICK ORLANDO</t>
-  </si>
-  <si>
-    <t>MAURICIO</t>
-  </si>
-  <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
-    <t>ALAN EDUARDO</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>BALDEZ</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>ELIZALDE</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>TEPOLE</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>IXTACUA</t>
-  </si>
-  <si>
-    <t>PALAGOT</t>
-  </si>
-  <si>
-    <t>BELTRAN</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>MELENDEZ</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>YEPEZ</t>
-  </si>
-  <si>
-    <t>MELLADO</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO</t>
-  </si>
-  <si>
-    <t>ALEX SAUL</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>GIOVANNA</t>
-  </si>
-  <si>
-    <t>SAUL ALEJANDRO</t>
-  </si>
-  <si>
-    <t>LOGAN ZURIEL</t>
-  </si>
-  <si>
-    <t>HUGO</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO</t>
-  </si>
-  <si>
-    <t>DIANA AMEYALLI</t>
-  </si>
-  <si>
-    <t>ANUAR ANTONIO</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>ARLETH</t>
-  </si>
-  <si>
-    <t>JAHIR</t>
   </si>
   <si>
     <t>JOHNNY</t>
@@ -1253,7 +1253,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1457,7 +1457,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -1525,7 +1525,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -1661,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1729,7 +1729,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -1865,7 +1865,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -2477,7 +2477,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -2566,7 +2566,7 @@
         <v>7</v>
       </c>
       <c r="I27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J27">
         <v>8</v>
@@ -2613,7 +2613,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -3021,7 +3021,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -3089,7 +3089,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -3246,7 +3246,7 @@
         <v>10</v>
       </c>
       <c r="I37">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J37">
         <v>10</v>
@@ -3497,7 +3497,7 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -3565,7 +3565,7 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -3692,25 +3692,25 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>33.33</v>
+        <v>35.9</v>
       </c>
       <c r="G2">
-        <v>35.9</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="H2">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>48.72</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3912,7 +3912,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3950,10 +3950,10 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -3970,10 +3970,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -3990,10 +3990,10 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -4010,10 +4010,10 @@
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -4030,10 +4030,10 @@
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -4050,10 +4050,10 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -4070,10 +4070,10 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -4090,10 +4090,10 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -4110,10 +4110,10 @@
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -4130,10 +4130,10 @@
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -4150,10 +4150,10 @@
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -4170,10 +4170,10 @@
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -4190,10 +4190,10 @@
         <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -4210,10 +4210,10 @@
         <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -4233,7 +4233,7 @@
         <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -4250,10 +4250,10 @@
         <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -4270,10 +4270,10 @@
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -4290,10 +4290,10 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -4310,10 +4310,10 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -4330,10 +4330,10 @@
         <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -4350,10 +4350,10 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -4370,10 +4370,10 @@
         <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -4384,16 +4384,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330061460390</v>
+        <v>19330051920024</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -4404,16 +4404,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920024</v>
+        <v>19330051920032</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -4430,30 +4430,30 @@
         <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920032</v>
+        <v>19330051920033</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -4464,16 +4464,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920035</v>
+        <v>19330051920033</v>
       </c>
       <c r="B28" t="s">
         <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -4484,36 +4484,36 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920033</v>
+        <v>19330051920038</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920033</v>
+        <v>19330051920037</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -4524,36 +4524,36 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920038</v>
+        <v>19330051920036</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920037</v>
+        <v>19330051920039</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -4564,61 +4564,21 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920036</v>
+        <v>19330051920040</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>19330051920039</v>
-      </c>
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>19330051920040</v>
-      </c>
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4664,10 +4624,10 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -4681,10 +4641,10 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -4698,10 +4658,10 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4715,10 +4675,10 @@
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -4732,10 +4692,10 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4749,10 +4709,10 @@
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4766,10 +4726,10 @@
         <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4777,13 +4737,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330061460390</v>
+        <v>19330051920032</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>119</v>
@@ -4794,16 +4754,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920032</v>
+        <v>19330051920033</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4811,33 +4771,33 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920033</v>
+        <v>19330051920003</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920003</v>
+        <v>19330051920014</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4845,13 +4805,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920014</v>
+        <v>19330051920012</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -4862,16 +4822,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920012</v>
+        <v>18330051920168</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4879,13 +4839,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920168</v>
+        <v>19330051920022</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>115</v>
@@ -4896,13 +4856,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920022</v>
+        <v>18330061460390</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>117</v>
@@ -4919,10 +4879,10 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4930,16 +4890,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920035</v>
+        <v>19330051920038</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4947,16 +4907,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920038</v>
+        <v>19330051920037</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4964,16 +4924,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920037</v>
+        <v>19330051920036</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4981,16 +4941,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920036</v>
+        <v>19330051920039</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4998,16 +4958,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920039</v>
+        <v>19330051920040</v>
       </c>
       <c r="B22" t="s">
         <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -5015,27 +4975,27 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920040</v>
+        <v>19330051920005</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920005</v>
+        <v>19330051920004</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
         <v>138</v>
@@ -5049,16 +5009,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920004</v>
+        <v>19330051920006</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
         <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5066,16 +5026,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920006</v>
+        <v>19330051920008</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C26" t="s">
         <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5083,16 +5043,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920008</v>
+        <v>19330051920015</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
         <v>141</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5100,10 +5060,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920015</v>
+        <v>19330051920009</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
         <v>142</v>
@@ -5117,10 +5077,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920009</v>
+        <v>19330051920017</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
         <v>143</v>
@@ -5134,10 +5094,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920017</v>
+        <v>19330051920018</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s">
         <v>144</v>
@@ -5151,13 +5111,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920018</v>
+        <v>19330051920020</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
         <v>153</v>
@@ -5168,13 +5128,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920020</v>
+        <v>19330051920021</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="D32" t="s">
         <v>154</v>
@@ -5185,13 +5145,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920021</v>
+        <v>19330051920023</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
         <v>155</v>
@@ -5202,13 +5162,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920023</v>
+        <v>19330051920025</v>
       </c>
       <c r="B34" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="D34" t="s">
         <v>156</v>
@@ -5219,13 +5179,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920025</v>
+        <v>19330051920027</v>
       </c>
       <c r="B35" t="s">
         <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D35" t="s">
         <v>157</v>
@@ -5236,13 +5196,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920027</v>
+        <v>19330051920029</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
         <v>158</v>
@@ -5253,13 +5213,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920029</v>
+        <v>19330051920030</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
         <v>159</v>
@@ -5270,13 +5230,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920030</v>
+        <v>19330051920031</v>
       </c>
       <c r="B38" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
         <v>160</v>
@@ -5287,13 +5247,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19330051920031</v>
+        <v>19330051920035</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
         <v>161</v>
@@ -5307,10 +5267,10 @@
         <v>19330051920034</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
         <v>162</v>
@@ -5326,7 +5286,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5367,10 +5327,10 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -5390,10 +5350,10 @@
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -5416,7 +5376,7 @@
         <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -5439,7 +5399,7 @@
         <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -5459,10 +5419,10 @@
         <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -5471,7 +5431,7 @@
         <v>60</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5482,10 +5442,10 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -5505,10 +5465,10 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5528,10 +5488,10 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5548,13 +5508,13 @@
         <v>19330051920039</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -5571,13 +5531,13 @@
         <v>19330051920039</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -5597,10 +5557,10 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -5620,10 +5580,10 @@
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -5643,10 +5603,10 @@
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -5666,10 +5626,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -5686,13 +5646,13 @@
         <v>19330051920029</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -5706,16 +5666,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920035</v>
+        <v>19330051920034</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -5724,21 +5684,21 @@
         <v>60</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920034</v>
+        <v>19330051920038</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -5747,21 +5707,21 @@
         <v>60</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920038</v>
+        <v>19330051920037</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -5775,13 +5735,13 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19330051920037</v>
+        <v>19330051920040</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
         <v>125</v>
@@ -5793,29 +5753,6 @@
         <v>60</v>
       </c>
       <c r="G20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920040</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" t="s">
-        <v>128</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4AEM - Estadisticos 2020.xlsx
+++ b/grupos/4AEM - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="163">
   <si>
     <t>Materia</t>
   </si>
@@ -269,244 +269,244 @@
     <t>TELLO</t>
   </si>
   <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>VALDERRAMA</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>VILLEGAS</t>
+  </si>
+  <si>
+    <t>MORAN</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>BERISTAIN</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>SORIANO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE LA LUZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MENCIAS</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>FERNANDO DE JESUS</t>
+  </si>
+  <si>
+    <t>CRISTIAN ANTONIO</t>
+  </si>
+  <si>
+    <t>LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>HAZIEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>YAIR ANTONIO</t>
+  </si>
+  <si>
+    <t>ESTEFANY SARAI</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>NATANAEL</t>
+  </si>
+  <si>
+    <t>ELIDETH</t>
+  </si>
+  <si>
+    <t>YAMIL ELIEL</t>
+  </si>
+  <si>
+    <t>RAUL</t>
+  </si>
+  <si>
+    <t>MAURICIO</t>
+  </si>
+  <si>
+    <t>EMILIO</t>
+  </si>
+  <si>
+    <t>ALAN EDUARDO</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>BALDEZ</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>ELIZALDE</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>TZANAHUA</t>
+  </si>
+  <si>
+    <t>TEPOLE</t>
+  </si>
+  <si>
     <t>VAZQUEZ</t>
   </si>
   <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>VALDERRAMA</t>
-  </si>
-  <si>
-    <t>VEGA</t>
-  </si>
-  <si>
-    <t>VILLEGAS</t>
-  </si>
-  <si>
-    <t>MORAN</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>SANDOVAL</t>
-  </si>
-  <si>
-    <t>BERISTAIN</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>SORIANO</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>CHAVEZ</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>DE LA LUZ</t>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>IXTACUA</t>
+  </si>
+  <si>
+    <t>PALAGOT</t>
+  </si>
+  <si>
+    <t>BELTRAN</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>MELENDEZ</t>
+  </si>
+  <si>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>YEPEZ</t>
+  </si>
+  <si>
+    <t>MELLADO</t>
   </si>
   <si>
     <t>CHICO</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>MENCIAS</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>FERNANDO DE JESUS</t>
-  </si>
-  <si>
-    <t>CRISTIAN ANTONIO</t>
-  </si>
-  <si>
-    <t>LUIS ENRIQUE</t>
-  </si>
-  <si>
-    <t>JESSICA</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>HAZIEL</t>
-  </si>
-  <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>YAIR ANTONIO</t>
-  </si>
-  <si>
-    <t>ESTEFANY SARAI</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>ISRAEL</t>
-  </si>
-  <si>
-    <t>NATANAEL</t>
-  </si>
-  <si>
-    <t>ELIDETH</t>
-  </si>
-  <si>
-    <t>YAMIL ELIEL</t>
-  </si>
-  <si>
-    <t>RAUL</t>
+    <t>CARLOS ALBERTO</t>
+  </si>
+  <si>
+    <t>ALEX SAUL</t>
+  </si>
+  <si>
+    <t>ALBERTO</t>
+  </si>
+  <si>
+    <t>GIOVANNA</t>
+  </si>
+  <si>
+    <t>SAUL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>LOGAN ZURIEL</t>
+  </si>
+  <si>
+    <t>HUGO</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO</t>
+  </si>
+  <si>
+    <t>DIANA AMEYALLI</t>
+  </si>
+  <si>
+    <t>ANUAR ANTONIO</t>
+  </si>
+  <si>
+    <t>GAEL</t>
+  </si>
+  <si>
+    <t>ARLETH</t>
+  </si>
+  <si>
+    <t>JAHIR</t>
+  </si>
+  <si>
+    <t>JOCELYN BERENICE</t>
+  </si>
+  <si>
+    <t>JOHNNY</t>
   </si>
   <si>
     <t>ERICK ORLANDO</t>
-  </si>
-  <si>
-    <t>MAURICIO</t>
-  </si>
-  <si>
-    <t>EMILIO</t>
-  </si>
-  <si>
-    <t>ALAN EDUARDO</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>BALDEZ</t>
-  </si>
-  <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>ELIZALDE</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>RIOS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>TZANAHUA</t>
-  </si>
-  <si>
-    <t>TEPOLE</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>IXTACUA</t>
-  </si>
-  <si>
-    <t>PALAGOT</t>
-  </si>
-  <si>
-    <t>BELTRAN</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>MELENDEZ</t>
-  </si>
-  <si>
-    <t>ARELLANO</t>
-  </si>
-  <si>
-    <t>YEPEZ</t>
-  </si>
-  <si>
-    <t>MELLADO</t>
-  </si>
-  <si>
-    <t>CARLOS ALBERTO</t>
-  </si>
-  <si>
-    <t>ALEX SAUL</t>
-  </si>
-  <si>
-    <t>ALBERTO</t>
-  </si>
-  <si>
-    <t>GIOVANNA</t>
-  </si>
-  <si>
-    <t>SAUL ALEJANDRO</t>
-  </si>
-  <si>
-    <t>LOGAN ZURIEL</t>
-  </si>
-  <si>
-    <t>HUGO</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>JOSE AUGUSTO</t>
-  </si>
-  <si>
-    <t>DIANA AMEYALLI</t>
-  </si>
-  <si>
-    <t>ANUAR ANTONIO</t>
-  </si>
-  <si>
-    <t>GAEL</t>
-  </si>
-  <si>
-    <t>ARLETH</t>
-  </si>
-  <si>
-    <t>JAHIR</t>
-  </si>
-  <si>
-    <t>JOCELYN BERENICE</t>
-  </si>
-  <si>
-    <t>JOHNNY</t>
   </si>
 </sst>
 </file>
@@ -2078,7 +2078,7 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -2099,7 +2099,7 @@
         <v>7</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -3450,7 +3450,7 @@
         <v>8</v>
       </c>
       <c r="I40">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J40">
         <v>8</v>
@@ -3707,10 +3707,10 @@
         <v>6.4</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3724,16 +3724,16 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>64.09999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="G3">
-        <v>35.9</v>
+        <v>33.33</v>
       </c>
       <c r="H3">
         <v>7.2</v>
@@ -3912,7 +3912,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3950,10 +3950,10 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -3970,10 +3970,10 @@
         <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -3990,10 +3990,10 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -4010,10 +4010,10 @@
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -4030,10 +4030,10 @@
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -4050,10 +4050,10 @@
         <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -4070,10 +4070,10 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -4090,10 +4090,10 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -4110,10 +4110,10 @@
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -4130,10 +4130,10 @@
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -4150,10 +4150,10 @@
         <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -4170,10 +4170,10 @@
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -4190,10 +4190,10 @@
         <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -4210,10 +4210,10 @@
         <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -4233,7 +4233,7 @@
         <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -4250,10 +4250,10 @@
         <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -4270,10 +4270,10 @@
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -4290,10 +4290,10 @@
         <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -4310,10 +4310,10 @@
         <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -4330,10 +4330,10 @@
         <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -4350,10 +4350,10 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -4370,10 +4370,10 @@
         <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -4390,10 +4390,10 @@
         <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -4410,10 +4410,10 @@
         <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -4430,10 +4430,10 @@
         <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
         <v>6</v>
@@ -4450,10 +4450,10 @@
         <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -4470,10 +4470,10 @@
         <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -4484,16 +4484,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920038</v>
+        <v>19330051920037</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -4504,81 +4504,61 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920037</v>
+        <v>19330051920036</v>
       </c>
       <c r="B30" t="s">
         <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920036</v>
+        <v>19330051920039</v>
       </c>
       <c r="B31" t="s">
         <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920039</v>
+        <v>19330051920040</v>
       </c>
       <c r="B32" t="s">
         <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>19330051920040</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D33" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4624,10 +4604,10 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -4641,10 +4621,10 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -4658,10 +4638,10 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4675,10 +4655,10 @@
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -4692,10 +4672,10 @@
         <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4709,10 +4689,10 @@
         <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4726,10 +4706,10 @@
         <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4743,10 +4723,10 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -4760,10 +4740,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -4777,10 +4757,10 @@
         <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4794,10 +4774,10 @@
         <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4811,10 +4791,10 @@
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4831,7 +4811,7 @@
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -4845,10 +4825,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -4862,10 +4842,10 @@
         <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -4879,10 +4859,10 @@
         <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -4890,16 +4870,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920038</v>
+        <v>19330051920037</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -4907,16 +4887,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920037</v>
+        <v>19330051920036</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -4924,16 +4904,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920036</v>
+        <v>19330051920039</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -4941,16 +4921,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920039</v>
+        <v>19330051920040</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4958,30 +4938,30 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920040</v>
+        <v>19330051920005</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920005</v>
+        <v>19330051920004</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
         <v>147</v>
@@ -4992,16 +4972,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920004</v>
+        <v>19330051920006</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5009,16 +4989,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920006</v>
+        <v>19330051920008</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5026,16 +5006,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920008</v>
+        <v>19330051920015</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5043,13 +5023,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920015</v>
+        <v>19330051920009</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
         <v>149</v>
@@ -5060,13 +5040,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920009</v>
+        <v>19330051920017</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
         <v>150</v>
@@ -5077,13 +5057,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920017</v>
+        <v>19330051920018</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" t="s">
         <v>151</v>
@@ -5094,13 +5074,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920018</v>
+        <v>19330051920020</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
         <v>152</v>
@@ -5111,13 +5091,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19330051920020</v>
+        <v>19330051920021</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D31" t="s">
         <v>153</v>
@@ -5128,13 +5108,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>19330051920021</v>
+        <v>19330051920023</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
         <v>154</v>
@@ -5145,13 +5125,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19330051920023</v>
+        <v>19330051920025</v>
       </c>
       <c r="B33" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="D33" t="s">
         <v>155</v>
@@ -5162,13 +5142,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>19330051920025</v>
+        <v>19330051920027</v>
       </c>
       <c r="B34" t="s">
         <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
         <v>156</v>
@@ -5179,13 +5159,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19330051920027</v>
+        <v>19330051920029</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
         <v>157</v>
@@ -5196,13 +5176,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19330051920029</v>
+        <v>19330051920030</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
         <v>158</v>
@@ -5213,13 +5193,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19330051920030</v>
+        <v>19330051920031</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D37" t="s">
         <v>159</v>
@@ -5230,13 +5210,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19330051920031</v>
+        <v>19330051920035</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
         <v>160</v>
@@ -5247,13 +5227,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19330051920035</v>
+        <v>19330051920034</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="D39" t="s">
         <v>161</v>
@@ -5264,13 +5244,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>19330051920034</v>
+        <v>19330051920038</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
         <v>162</v>
@@ -5286,7 +5266,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5327,10 +5307,10 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -5350,10 +5330,10 @@
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -5367,16 +5347,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920168</v>
+        <v>18330061460390</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -5385,44 +5365,44 @@
         <v>60</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920168</v>
+        <v>18330061460390</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330061460390</v>
+        <v>19330051920024</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -5431,44 +5411,44 @@
         <v>60</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330061460390</v>
+        <v>19330051920024</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920024</v>
+        <v>19330051920039</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -5482,16 +5462,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920024</v>
+        <v>19330051920039</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -5505,16 +5485,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920039</v>
+        <v>19330051920003</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -5528,39 +5508,39 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920039</v>
+        <v>19330051920012</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920003</v>
+        <v>18330051920168</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -5574,16 +5554,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920012</v>
+        <v>19330051920020</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -5592,18 +5572,18 @@
         <v>60</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920020</v>
+        <v>19330051920021</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
         <v>153</v>
@@ -5620,16 +5600,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920021</v>
+        <v>19330051920029</v>
       </c>
       <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -5643,16 +5623,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920029</v>
+        <v>19330051920034</v>
       </c>
       <c r="B16" t="s">
         <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -5666,13 +5646,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920034</v>
+        <v>19330051920038</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
         <v>162</v>
@@ -5684,21 +5664,21 @@
         <v>60</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920038</v>
+        <v>19330051920037</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -5712,13 +5692,13 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920037</v>
+        <v>19330051920040</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -5730,29 +5710,6 @@
         <v>60</v>
       </c>
       <c r="G19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920040</v>
-      </c>
-      <c r="B20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4AEM - Estadisticos 2020.xlsx
+++ b/grupos/4AEM - Estadisticos 2020.xlsx
@@ -215,7 +215,7 @@
     <t>Torres Sánchez José Luis</t>
   </si>
   <si>
-    <t>Jimenez Nieto Enrique</t>
+    <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>NC</t>
@@ -4076,10 +4076,10 @@
         <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4096,10 +4096,10 @@
         <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4136,10 +4136,10 @@
         <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4336,10 +4336,10 @@
         <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4356,10 +4356,10 @@
         <v>114</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
